--- a/demo/deadband/cases/IL200_dyn_db2.xlsx
+++ b/demo/deadband/cases/IL200_dyn_db2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/demo/demo/deadband/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882C7F6F-3740-4840-8509-6A69306A360B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11987F59-9D9E-BB4C-944F-29F30A914D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,15 @@
     <sheet name="TGOV1NDB" sheetId="10" r:id="rId10"/>
     <sheet name="SEXS" sheetId="11" r:id="rId11"/>
     <sheet name="BusFreq" sheetId="12" r:id="rId12"/>
-    <sheet name="PVD1" sheetId="13" r:id="rId13"/>
-    <sheet name="ESD1" sheetId="14" r:id="rId14"/>
+    <sheet name="PLL2" sheetId="13" r:id="rId13"/>
+    <sheet name="REGF2" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="852">
   <si>
     <t>idx</t>
   </si>
@@ -2258,6 +2258,99 @@
     <t>TGOV1_49</t>
   </si>
   <si>
+    <t>TATB</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>EMIN</t>
+  </si>
+  <si>
+    <t>EMAX</t>
+  </si>
+  <si>
+    <t>SEXS_1</t>
+  </si>
+  <si>
+    <t>SEXS_2</t>
+  </si>
+  <si>
+    <t>SEXS_3</t>
+  </si>
+  <si>
+    <t>SEXS_4</t>
+  </si>
+  <si>
+    <t>SEXS_5</t>
+  </si>
+  <si>
+    <t>SEXS_7</t>
+  </si>
+  <si>
+    <t>SEXS_15</t>
+  </si>
+  <si>
+    <t>SEXS_16</t>
+  </si>
+  <si>
+    <t>SEXS_17</t>
+  </si>
+  <si>
+    <t>SEXS_18</t>
+  </si>
+  <si>
+    <t>SEXS_19</t>
+  </si>
+  <si>
+    <t>SEXS_20</t>
+  </si>
+  <si>
+    <t>SEXS_21</t>
+  </si>
+  <si>
+    <t>SEXS_37</t>
+  </si>
+  <si>
+    <t>SEXS_38</t>
+  </si>
+  <si>
+    <t>SEXS_39</t>
+  </si>
+  <si>
+    <t>SEXS_40</t>
+  </si>
+  <si>
+    <t>SEXS_41</t>
+  </si>
+  <si>
+    <t>SEXS_42</t>
+  </si>
+  <si>
+    <t>SEXS_43</t>
+  </si>
+  <si>
+    <t>SEXS_44</t>
+  </si>
+  <si>
+    <t>SEXS_45</t>
+  </si>
+  <si>
+    <t>SEXS_47</t>
+  </si>
+  <si>
+    <t>SEXS_48</t>
+  </si>
+  <si>
+    <t>SEXS_49</t>
+  </si>
+  <si>
     <t>Tf</t>
   </si>
   <si>
@@ -2267,148 +2360,163 @@
     <t>BusFreq_1</t>
   </si>
   <si>
-    <t>BusFreq_2</t>
-  </si>
-  <si>
-    <t>BusFreq_3</t>
-  </si>
-  <si>
-    <t>BusFreq_4</t>
-  </si>
-  <si>
-    <t>BusFreq_5</t>
-  </si>
-  <si>
-    <t>BusFreq_6</t>
-  </si>
-  <si>
-    <t>BusFreq_7</t>
-  </si>
-  <si>
-    <t>BusFreq_8</t>
-  </si>
-  <si>
-    <t>BusFreq_9</t>
-  </si>
-  <si>
-    <t>BusFreq_10</t>
-  </si>
-  <si>
-    <t>BusFreq_11</t>
-  </si>
-  <si>
-    <t>BusFreq_12</t>
-  </si>
-  <si>
-    <t>BusFreq_13</t>
-  </si>
-  <si>
-    <t>BusFreq_14</t>
-  </si>
-  <si>
-    <t>BusFreq_15</t>
-  </si>
-  <si>
-    <t>BusFreq_16</t>
-  </si>
-  <si>
-    <t>BusFreq_17</t>
-  </si>
-  <si>
-    <t>BusFreq_18</t>
-  </si>
-  <si>
-    <t>BusFreq_19</t>
-  </si>
-  <si>
-    <t>BusFreq_20</t>
-  </si>
-  <si>
-    <t>BusFreq_21</t>
-  </si>
-  <si>
-    <t>BusFreq_22</t>
-  </si>
-  <si>
-    <t>BusFreq_23</t>
-  </si>
-  <si>
-    <t>BusFreq_24</t>
-  </si>
-  <si>
-    <t>BusFreq_25</t>
-  </si>
-  <si>
-    <t>xc</t>
-  </si>
-  <si>
-    <t>pqflag</t>
-  </si>
-  <si>
-    <t>igreg</t>
-  </si>
-  <si>
-    <t>qmx</t>
-  </si>
-  <si>
-    <t>qmn</t>
-  </si>
-  <si>
-    <t>pmx</t>
-  </si>
-  <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>dqdv</t>
-  </si>
-  <si>
-    <t>fdbd</t>
-  </si>
-  <si>
-    <t>ddn</t>
-  </si>
-  <si>
-    <t>ialim</t>
-  </si>
-  <si>
-    <t>vt0</t>
-  </si>
-  <si>
-    <t>vt1</t>
-  </si>
-  <si>
-    <t>vt2</t>
-  </si>
-  <si>
-    <t>vt3</t>
-  </si>
-  <si>
-    <t>vrflag</t>
-  </si>
-  <si>
-    <t>ft0</t>
-  </si>
-  <si>
-    <t>ft1</t>
-  </si>
-  <si>
-    <t>ft2</t>
-  </si>
-  <si>
-    <t>ft3</t>
-  </si>
-  <si>
-    <t>frflag</t>
-  </si>
-  <si>
-    <t>tip</t>
-  </si>
-  <si>
-    <t>tiq</t>
-  </si>
-  <si>
-    <t>recflag</t>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Ki</t>
+  </si>
+  <si>
+    <t>PLL2_1</t>
+  </si>
+  <si>
+    <t>PLL2_2</t>
+  </si>
+  <si>
+    <t>PLL2_3</t>
+  </si>
+  <si>
+    <t>PLL2_4</t>
+  </si>
+  <si>
+    <t>PLL2_5</t>
+  </si>
+  <si>
+    <t>PLL2_6</t>
+  </si>
+  <si>
+    <t>PLL2_7</t>
+  </si>
+  <si>
+    <t>PLL2_8</t>
+  </si>
+  <si>
+    <t>PLL2_9</t>
+  </si>
+  <si>
+    <t>PLL2_10</t>
+  </si>
+  <si>
+    <t>PLL2_11</t>
+  </si>
+  <si>
+    <t>PLL2_12</t>
+  </si>
+  <si>
+    <t>PLL2_13</t>
+  </si>
+  <si>
+    <t>PLL2_14</t>
+  </si>
+  <si>
+    <t>PLL2_15</t>
+  </si>
+  <si>
+    <t>PLL2_16</t>
+  </si>
+  <si>
+    <t>PLL2_17</t>
+  </si>
+  <si>
+    <t>PLL2_18</t>
+  </si>
+  <si>
+    <t>PLL2_19</t>
+  </si>
+  <si>
+    <t>PLL2_20</t>
+  </si>
+  <si>
+    <t>PLL2_21</t>
+  </si>
+  <si>
+    <t>PLL2_22</t>
+  </si>
+  <si>
+    <t>PLL2_23</t>
+  </si>
+  <si>
+    <t>PLL2_24</t>
+  </si>
+  <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>xf</t>
+  </si>
+  <si>
+    <t>Vdip</t>
+  </si>
+  <si>
+    <t>Tfrz</t>
+  </si>
+  <si>
+    <t>PQFLAG</t>
+  </si>
+  <si>
+    <t>dwmax</t>
+  </si>
+  <si>
+    <t>dwmin</t>
+  </si>
+  <si>
+    <t>wdrp</t>
+  </si>
+  <si>
+    <t>Qdrp</t>
+  </si>
+  <si>
+    <t>Tr</t>
+  </si>
+  <si>
+    <t>Te</t>
+  </si>
+  <si>
+    <t>KPi</t>
+  </si>
+  <si>
+    <t>KIi</t>
+  </si>
+  <si>
+    <t>KPv</t>
+  </si>
+  <si>
+    <t>KIv</t>
+  </si>
+  <si>
+    <t>Pmax</t>
+  </si>
+  <si>
+    <t>Pmin</t>
+  </si>
+  <si>
+    <t>KPplim</t>
+  </si>
+  <si>
+    <t>KIplim</t>
+  </si>
+  <si>
+    <t>Qmax</t>
+  </si>
+  <si>
+    <t>Qmin</t>
+  </si>
+  <si>
+    <t>KPqlim</t>
+  </si>
+  <si>
+    <t>KIqlim</t>
+  </si>
+  <si>
+    <t>Tpm</t>
+  </si>
+  <si>
+    <t>mf</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>pll</t>
   </si>
   <si>
     <t>WT_1</t>
@@ -2475,24 +2583,6 @@
   </si>
   <si>
     <t>PV_10</t>
-  </si>
-  <si>
-    <t>SOCmin</t>
-  </si>
-  <si>
-    <t>SOCmax</t>
-  </si>
-  <si>
-    <t>SOCinit</t>
-  </si>
-  <si>
-    <t>En</t>
-  </si>
-  <si>
-    <t>EtaC</t>
-  </si>
-  <si>
-    <t>EtaD</t>
   </si>
   <si>
     <t>ESS_1</t>
@@ -2870,7 +2960,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11726,11 +11816,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:P26"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13035,78 +13125,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13114,16 +13132,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -13140,1360 +13158,898 @@
         <v>704</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>705</v>
+        <v>741</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>706</v>
+        <v>742</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>707</v>
+        <v>743</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>708</v>
+        <v>744</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>709</v>
+        <v>745</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>716</v>
+        <v>747</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>716</v>
+        <v>747</v>
       </c>
       <c r="E2" t="s">
         <v>679</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>0.04</v>
+        <v>130</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K2">
-        <v>0.32031900000000002</v>
-      </c>
-      <c r="L2">
-        <v>2.1</v>
-      </c>
-      <c r="M2">
-        <v>6.3000600000000002</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>717</v>
+        <v>748</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>717</v>
+        <v>748</v>
       </c>
       <c r="E3" t="s">
         <v>680</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
         <v>0.05</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
       <c r="J3">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K3">
-        <v>0.5</v>
-      </c>
-      <c r="L3">
-        <v>2.50874</v>
-      </c>
-      <c r="M3">
-        <v>7.5263</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>718</v>
+        <v>749</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>718</v>
+        <v>749</v>
       </c>
       <c r="E4" t="s">
         <v>681</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>0.04</v>
+        <v>100</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K4">
-        <v>0.5</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <v>9.0000900000000001</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>719</v>
+        <v>750</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>719</v>
+        <v>750</v>
       </c>
       <c r="E5" t="s">
         <v>682</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>0.05</v>
+        <v>250</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K5">
-        <v>0.5</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>9.0000900000000001</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>720</v>
+        <v>751</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>720</v>
+        <v>751</v>
       </c>
       <c r="E6" t="s">
         <v>683</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>0.04</v>
+        <v>200</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K6">
-        <v>0.5</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <v>9.0000900000000001</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>721</v>
+        <v>752</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>721</v>
+        <v>752</v>
       </c>
       <c r="E7" t="s">
         <v>684</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>0.04</v>
+        <v>100</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
-      </c>
-      <c r="L7">
-        <v>2.1</v>
-      </c>
-      <c r="M7">
-        <v>7</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>722</v>
+        <v>753</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>722</v>
+        <v>753</v>
       </c>
       <c r="E8" t="s">
         <v>685</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H8">
+        <v>200</v>
+      </c>
+      <c r="I8">
         <v>0.05</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K8">
-        <v>0.23719199999999999</v>
-      </c>
-      <c r="L8">
-        <v>2.1</v>
-      </c>
-      <c r="M8">
-        <v>6.3000600000000002</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>723</v>
+        <v>754</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>723</v>
+        <v>754</v>
       </c>
       <c r="E9" t="s">
         <v>686</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>0.04</v>
+        <v>100</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9">
-        <v>9.0000900000000001</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>724</v>
+        <v>755</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>724</v>
+        <v>755</v>
       </c>
       <c r="E10" t="s">
         <v>687</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H10">
+        <v>250</v>
+      </c>
+      <c r="I10">
         <v>0.05</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
       <c r="J10">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K10">
-        <v>0.5</v>
-      </c>
-      <c r="L10">
-        <v>2.1</v>
-      </c>
-      <c r="M10">
-        <v>6.3000600000000002</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>725</v>
+        <v>756</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>725</v>
+        <v>756</v>
       </c>
       <c r="E11" t="s">
         <v>688</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
         <v>0.05</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
       <c r="J11">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K11">
-        <v>0.5</v>
-      </c>
-      <c r="L11">
-        <v>1.1187400000000001</v>
-      </c>
-      <c r="M11">
-        <v>3.3562400000000001</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>726</v>
+        <v>757</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>726</v>
+        <v>757</v>
       </c>
       <c r="E12" t="s">
         <v>689</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H12">
+        <v>190</v>
+      </c>
+      <c r="I12">
         <v>0.05</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
       <c r="J12">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K12">
-        <v>0.5</v>
-      </c>
-      <c r="L12">
-        <v>2.1</v>
-      </c>
-      <c r="M12">
-        <v>6.3000600000000002</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>727</v>
+        <v>758</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>727</v>
+        <v>758</v>
       </c>
       <c r="E13" t="s">
         <v>690</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>0.04</v>
+        <v>180</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K13">
-        <v>0.14874100000000001</v>
-      </c>
-      <c r="L13">
-        <v>2.1</v>
-      </c>
-      <c r="M13">
-        <v>6.3000600000000002</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>728</v>
+        <v>759</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>728</v>
+        <v>759</v>
       </c>
       <c r="E14" t="s">
         <v>691</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H14">
+        <v>200</v>
+      </c>
+      <c r="I14">
         <v>0.05</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
       <c r="J14">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K14">
-        <v>0.5</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
-      <c r="M14">
-        <v>9.0000900000000001</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>729</v>
+        <v>760</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>729</v>
+        <v>760</v>
       </c>
       <c r="E15" t="s">
         <v>692</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H15">
-        <v>0.04</v>
+        <v>100</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K15">
-        <v>0.11638900000000001</v>
-      </c>
-      <c r="L15">
-        <v>2.1</v>
-      </c>
-      <c r="M15">
-        <v>6.3000600000000002</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>730</v>
+        <v>761</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>730</v>
+        <v>761</v>
       </c>
       <c r="E16" t="s">
         <v>693</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>0.05</v>
+        <v>100</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K16">
-        <v>0.5</v>
-      </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
-      <c r="M16">
-        <v>9.0000900000000001</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>731</v>
+        <v>762</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>731</v>
+        <v>762</v>
       </c>
       <c r="E17" t="s">
         <v>694</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H17">
-        <v>0.05</v>
+        <v>100</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K17">
-        <v>0.5</v>
-      </c>
-      <c r="L17">
-        <v>2.1</v>
-      </c>
-      <c r="M17">
-        <v>7</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>732</v>
+        <v>763</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>732</v>
+        <v>763</v>
       </c>
       <c r="E18" t="s">
         <v>695</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H18">
-        <v>0.04</v>
+        <v>100</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K18">
-        <v>0.5</v>
-      </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-      <c r="M18">
-        <v>9.0000900000000001</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>733</v>
+        <v>764</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>733</v>
+        <v>764</v>
       </c>
       <c r="E19" t="s">
         <v>696</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
         <v>0.05</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
       <c r="J19">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
-      </c>
-      <c r="L19">
-        <v>2.1</v>
-      </c>
-      <c r="M19">
-        <v>6.3000600000000002</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>734</v>
+        <v>765</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>734</v>
+        <v>765</v>
       </c>
       <c r="E20" t="s">
         <v>697</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H20">
-        <v>0.04</v>
+        <v>100</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K20">
-        <v>0.48765399999999998</v>
-      </c>
-      <c r="L20">
-        <v>2.1</v>
-      </c>
-      <c r="M20">
-        <v>7</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>735</v>
+        <v>766</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>735</v>
+        <v>766</v>
       </c>
       <c r="E21" t="s">
         <v>698</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21">
         <v>0.05</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
       <c r="J21">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K21">
-        <v>0.5</v>
-      </c>
-      <c r="L21">
-        <v>2.1</v>
-      </c>
-      <c r="M21">
-        <v>6.3000600000000002</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>736</v>
+        <v>767</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>736</v>
+        <v>767</v>
       </c>
       <c r="E22" t="s">
         <v>699</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
         <v>0.05</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
       <c r="J22">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
-      </c>
-      <c r="L22">
-        <v>1.51816</v>
-      </c>
-      <c r="M22">
-        <v>5.0605399999999996</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>737</v>
+        <v>768</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>737</v>
+        <v>768</v>
       </c>
       <c r="E23" t="s">
         <v>700</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H23">
-        <v>0.05</v>
+        <v>100</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
-      </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-      <c r="M23">
-        <v>9.0000900000000001</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>738</v>
+        <v>769</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>738</v>
+        <v>769</v>
       </c>
       <c r="E24" t="s">
         <v>701</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H24">
-        <v>0.05</v>
+        <v>250</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K24">
-        <v>0.27889199999999997</v>
-      </c>
-      <c r="L24">
-        <v>2.5094400000000001</v>
-      </c>
-      <c r="M24">
-        <v>7.52841</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>739</v>
+        <v>770</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>739</v>
+        <v>770</v>
       </c>
       <c r="E25" t="s">
         <v>702</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H25">
-        <v>0.05</v>
+        <v>200</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
-      </c>
-      <c r="L25">
-        <v>2.1</v>
-      </c>
-      <c r="M25">
-        <v>6.3000600000000002</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>740</v>
+        <v>771</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>740</v>
+        <v>771</v>
       </c>
       <c r="E26" t="s">
         <v>703</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H26">
-        <v>0.04</v>
+        <v>250</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
-      </c>
-      <c r="L26">
-        <v>0.91889200000000004</v>
-      </c>
-      <c r="M26">
-        <v>2.7566999999999999</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14502,7 +14058,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14528,10 +14084,10 @@
         <v>214</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>741</v>
+        <v>772</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>742</v>
+        <v>773</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>387</v>
@@ -14542,13 +14098,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>743</v>
+        <v>774</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>743</v>
+        <v>774</v>
       </c>
       <c r="E2">
         <v>189</v>
@@ -14560,630 +14116,6 @@
         <v>0.1</v>
       </c>
       <c r="H2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>744</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>744</v>
-      </c>
-      <c r="E3">
-        <v>65</v>
-      </c>
-      <c r="F3">
-        <v>0.02</v>
-      </c>
-      <c r="G3">
-        <v>0.1</v>
-      </c>
-      <c r="H3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>745</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>745</v>
-      </c>
-      <c r="E4">
-        <v>68</v>
-      </c>
-      <c r="F4">
-        <v>0.02</v>
-      </c>
-      <c r="G4">
-        <v>0.1</v>
-      </c>
-      <c r="H4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>746</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>746</v>
-      </c>
-      <c r="E5">
-        <v>69</v>
-      </c>
-      <c r="F5">
-        <v>0.02</v>
-      </c>
-      <c r="G5">
-        <v>0.1</v>
-      </c>
-      <c r="H5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>747</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>747</v>
-      </c>
-      <c r="E6">
-        <v>70</v>
-      </c>
-      <c r="F6">
-        <v>0.02</v>
-      </c>
-      <c r="G6">
-        <v>0.1</v>
-      </c>
-      <c r="H6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>748</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>748</v>
-      </c>
-      <c r="E7">
-        <v>71</v>
-      </c>
-      <c r="F7">
-        <v>0.02</v>
-      </c>
-      <c r="G7">
-        <v>0.1</v>
-      </c>
-      <c r="H7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>749</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>749</v>
-      </c>
-      <c r="E8">
-        <v>72</v>
-      </c>
-      <c r="F8">
-        <v>0.02</v>
-      </c>
-      <c r="G8">
-        <v>0.1</v>
-      </c>
-      <c r="H8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>750</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>750</v>
-      </c>
-      <c r="E9">
-        <v>73</v>
-      </c>
-      <c r="F9">
-        <v>0.02</v>
-      </c>
-      <c r="G9">
-        <v>0.1</v>
-      </c>
-      <c r="H9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>751</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>751</v>
-      </c>
-      <c r="E10">
-        <v>104</v>
-      </c>
-      <c r="F10">
-        <v>0.02</v>
-      </c>
-      <c r="G10">
-        <v>0.1</v>
-      </c>
-      <c r="H10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>752</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>752</v>
-      </c>
-      <c r="E11">
-        <v>105</v>
-      </c>
-      <c r="F11">
-        <v>0.02</v>
-      </c>
-      <c r="G11">
-        <v>0.1</v>
-      </c>
-      <c r="H11">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>753</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>753</v>
-      </c>
-      <c r="E12">
-        <v>114</v>
-      </c>
-      <c r="F12">
-        <v>0.02</v>
-      </c>
-      <c r="G12">
-        <v>0.1</v>
-      </c>
-      <c r="H12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>754</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>754</v>
-      </c>
-      <c r="E13">
-        <v>115</v>
-      </c>
-      <c r="F13">
-        <v>0.02</v>
-      </c>
-      <c r="G13">
-        <v>0.1</v>
-      </c>
-      <c r="H13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>755</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>755</v>
-      </c>
-      <c r="E14">
-        <v>147</v>
-      </c>
-      <c r="F14">
-        <v>0.02</v>
-      </c>
-      <c r="G14">
-        <v>0.1</v>
-      </c>
-      <c r="H14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>756</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>756</v>
-      </c>
-      <c r="E15">
-        <v>125</v>
-      </c>
-      <c r="F15">
-        <v>0.02</v>
-      </c>
-      <c r="G15">
-        <v>0.1</v>
-      </c>
-      <c r="H15">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>757</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>757</v>
-      </c>
-      <c r="E16">
-        <v>126</v>
-      </c>
-      <c r="F16">
-        <v>0.02</v>
-      </c>
-      <c r="G16">
-        <v>0.1</v>
-      </c>
-      <c r="H16">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>758</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>758</v>
-      </c>
-      <c r="E17">
-        <v>127</v>
-      </c>
-      <c r="F17">
-        <v>0.02</v>
-      </c>
-      <c r="G17">
-        <v>0.1</v>
-      </c>
-      <c r="H17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>759</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>759</v>
-      </c>
-      <c r="E18">
-        <v>135</v>
-      </c>
-      <c r="F18">
-        <v>0.02</v>
-      </c>
-      <c r="G18">
-        <v>0.1</v>
-      </c>
-      <c r="H18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>760</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>760</v>
-      </c>
-      <c r="E19">
-        <v>136</v>
-      </c>
-      <c r="F19">
-        <v>0.02</v>
-      </c>
-      <c r="G19">
-        <v>0.1</v>
-      </c>
-      <c r="H19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>761</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>761</v>
-      </c>
-      <c r="E20">
-        <v>151</v>
-      </c>
-      <c r="F20">
-        <v>0.02</v>
-      </c>
-      <c r="G20">
-        <v>0.1</v>
-      </c>
-      <c r="H20">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>762</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>762</v>
-      </c>
-      <c r="E21">
-        <v>152</v>
-      </c>
-      <c r="F21">
-        <v>0.02</v>
-      </c>
-      <c r="G21">
-        <v>0.1</v>
-      </c>
-      <c r="H21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>763</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>763</v>
-      </c>
-      <c r="E22">
-        <v>153</v>
-      </c>
-      <c r="F22">
-        <v>0.02</v>
-      </c>
-      <c r="G22">
-        <v>0.1</v>
-      </c>
-      <c r="H22">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>764</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>764</v>
-      </c>
-      <c r="E23">
-        <v>154</v>
-      </c>
-      <c r="F23">
-        <v>0.02</v>
-      </c>
-      <c r="G23">
-        <v>0.1</v>
-      </c>
-      <c r="H23">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>765</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>765</v>
-      </c>
-      <c r="E24">
-        <v>155</v>
-      </c>
-      <c r="F24">
-        <v>0.02</v>
-      </c>
-      <c r="G24">
-        <v>0.1</v>
-      </c>
-      <c r="H24">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>766</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>766</v>
-      </c>
-      <c r="E25">
-        <v>76</v>
-      </c>
-      <c r="F25">
-        <v>0.02</v>
-      </c>
-      <c r="G25">
-        <v>0.1</v>
-      </c>
-      <c r="H25">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>767</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>767</v>
-      </c>
-      <c r="E26">
-        <v>183</v>
-      </c>
-      <c r="F26">
-        <v>0.02</v>
-      </c>
-      <c r="G26">
-        <v>0.1</v>
-      </c>
-      <c r="H26">
         <v>60</v>
       </c>
     </row>
@@ -15194,2421 +14126,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:AJ23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>792</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>792</v>
-      </c>
-      <c r="E2">
-        <v>65</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>180.48</v>
-      </c>
-      <c r="H2">
-        <v>60</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>999</v>
-      </c>
-      <c r="N2">
-        <v>-999</v>
-      </c>
-      <c r="O2">
-        <v>999</v>
-      </c>
-      <c r="P2">
-        <v>0.8</v>
-      </c>
-      <c r="Q2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R2">
-        <v>-1</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>999</v>
-      </c>
-      <c r="V2">
-        <v>0.88</v>
-      </c>
-      <c r="W2">
-        <v>0.9</v>
-      </c>
-      <c r="X2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y2">
-        <v>1.2</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>59.5</v>
-      </c>
-      <c r="AB2">
-        <v>59.7</v>
-      </c>
-      <c r="AC2">
-        <v>60.3</v>
-      </c>
-      <c r="AD2">
-        <v>60.5</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0.02</v>
-      </c>
-      <c r="AG2">
-        <v>0.02</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
-      </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>793</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>793</v>
-      </c>
-      <c r="E3">
-        <v>68</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>33.5</v>
-      </c>
-      <c r="H3">
-        <v>60</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>999</v>
-      </c>
-      <c r="N3">
-        <v>-999</v>
-      </c>
-      <c r="O3">
-        <v>999</v>
-      </c>
-      <c r="P3">
-        <v>0.8</v>
-      </c>
-      <c r="Q3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R3">
-        <v>-1</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>999</v>
-      </c>
-      <c r="V3">
-        <v>0.88</v>
-      </c>
-      <c r="W3">
-        <v>0.9</v>
-      </c>
-      <c r="X3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y3">
-        <v>1.2</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>59.5</v>
-      </c>
-      <c r="AB3">
-        <v>59.7</v>
-      </c>
-      <c r="AC3">
-        <v>60.3</v>
-      </c>
-      <c r="AD3">
-        <v>60.5</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0.02</v>
-      </c>
-      <c r="AG3">
-        <v>0.02</v>
-      </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>794</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>794</v>
-      </c>
-      <c r="E4">
-        <v>69</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>33.5</v>
-      </c>
-      <c r="H4">
-        <v>60</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>999</v>
-      </c>
-      <c r="N4">
-        <v>-999</v>
-      </c>
-      <c r="O4">
-        <v>999</v>
-      </c>
-      <c r="P4">
-        <v>0.8</v>
-      </c>
-      <c r="Q4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R4">
-        <v>-1</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>999</v>
-      </c>
-      <c r="V4">
-        <v>0.88</v>
-      </c>
-      <c r="W4">
-        <v>0.9</v>
-      </c>
-      <c r="X4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y4">
-        <v>1.2</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>59.5</v>
-      </c>
-      <c r="AB4">
-        <v>59.7</v>
-      </c>
-      <c r="AC4">
-        <v>60.3</v>
-      </c>
-      <c r="AD4">
-        <v>60.5</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0.02</v>
-      </c>
-      <c r="AG4">
-        <v>0.02</v>
-      </c>
-      <c r="AH4">
-        <v>1</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>795</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>795</v>
-      </c>
-      <c r="E5">
-        <v>70</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>33.5</v>
-      </c>
-      <c r="H5">
-        <v>60</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>999</v>
-      </c>
-      <c r="N5">
-        <v>-999</v>
-      </c>
-      <c r="O5">
-        <v>999</v>
-      </c>
-      <c r="P5">
-        <v>0.8</v>
-      </c>
-      <c r="Q5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R5">
-        <v>-1</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>999</v>
-      </c>
-      <c r="V5">
-        <v>0.88</v>
-      </c>
-      <c r="W5">
-        <v>0.9</v>
-      </c>
-      <c r="X5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y5">
-        <v>1.2</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>59.5</v>
-      </c>
-      <c r="AB5">
-        <v>59.7</v>
-      </c>
-      <c r="AC5">
-        <v>60.3</v>
-      </c>
-      <c r="AD5">
-        <v>60.5</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0.02</v>
-      </c>
-      <c r="AG5">
-        <v>0.02</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>796</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>796</v>
-      </c>
-      <c r="E6">
-        <v>71</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>33.5</v>
-      </c>
-      <c r="H6">
-        <v>60</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>999</v>
-      </c>
-      <c r="N6">
-        <v>-999</v>
-      </c>
-      <c r="O6">
-        <v>999</v>
-      </c>
-      <c r="P6">
-        <v>0.8</v>
-      </c>
-      <c r="Q6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R6">
-        <v>-1</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>999</v>
-      </c>
-      <c r="V6">
-        <v>0.88</v>
-      </c>
-      <c r="W6">
-        <v>0.9</v>
-      </c>
-      <c r="X6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y6">
-        <v>1.2</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>59.5</v>
-      </c>
-      <c r="AB6">
-        <v>59.7</v>
-      </c>
-      <c r="AC6">
-        <v>60.3</v>
-      </c>
-      <c r="AD6">
-        <v>60.5</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0.02</v>
-      </c>
-      <c r="AG6">
-        <v>0.02</v>
-      </c>
-      <c r="AH6">
-        <v>1</v>
-      </c>
-      <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>797</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>797</v>
-      </c>
-      <c r="E7">
-        <v>72</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>33.5</v>
-      </c>
-      <c r="H7">
-        <v>60</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>999</v>
-      </c>
-      <c r="N7">
-        <v>-999</v>
-      </c>
-      <c r="O7">
-        <v>999</v>
-      </c>
-      <c r="P7">
-        <v>0.8</v>
-      </c>
-      <c r="Q7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R7">
-        <v>-1</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>999</v>
-      </c>
-      <c r="V7">
-        <v>0.88</v>
-      </c>
-      <c r="W7">
-        <v>0.9</v>
-      </c>
-      <c r="X7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y7">
-        <v>1.2</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>59.5</v>
-      </c>
-      <c r="AB7">
-        <v>59.7</v>
-      </c>
-      <c r="AC7">
-        <v>60.3</v>
-      </c>
-      <c r="AD7">
-        <v>60.5</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0.02</v>
-      </c>
-      <c r="AG7">
-        <v>0.02</v>
-      </c>
-      <c r="AH7">
-        <v>1</v>
-      </c>
-      <c r="AI7">
-        <v>1</v>
-      </c>
-      <c r="AJ7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>798</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>798</v>
-      </c>
-      <c r="E8">
-        <v>73</v>
-      </c>
-      <c r="F8">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>33.5</v>
-      </c>
-      <c r="H8">
-        <v>60</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>999</v>
-      </c>
-      <c r="N8">
-        <v>-999</v>
-      </c>
-      <c r="O8">
-        <v>999</v>
-      </c>
-      <c r="P8">
-        <v>0.8</v>
-      </c>
-      <c r="Q8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R8">
-        <v>-1</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>999</v>
-      </c>
-      <c r="V8">
-        <v>0.88</v>
-      </c>
-      <c r="W8">
-        <v>0.9</v>
-      </c>
-      <c r="X8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y8">
-        <v>1.2</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>59.5</v>
-      </c>
-      <c r="AB8">
-        <v>59.7</v>
-      </c>
-      <c r="AC8">
-        <v>60.3</v>
-      </c>
-      <c r="AD8">
-        <v>60.5</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0.02</v>
-      </c>
-      <c r="AG8">
-        <v>0.02</v>
-      </c>
-      <c r="AH8">
-        <v>1</v>
-      </c>
-      <c r="AI8">
-        <v>1</v>
-      </c>
-      <c r="AJ8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>799</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>799</v>
-      </c>
-      <c r="E9">
-        <v>104</v>
-      </c>
-      <c r="F9">
-        <v>22</v>
-      </c>
-      <c r="G9">
-        <v>118.8</v>
-      </c>
-      <c r="H9">
-        <v>60</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>999</v>
-      </c>
-      <c r="N9">
-        <v>-999</v>
-      </c>
-      <c r="O9">
-        <v>999</v>
-      </c>
-      <c r="P9">
-        <v>0.8</v>
-      </c>
-      <c r="Q9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R9">
-        <v>-1</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>999</v>
-      </c>
-      <c r="V9">
-        <v>0.88</v>
-      </c>
-      <c r="W9">
-        <v>0.9</v>
-      </c>
-      <c r="X9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y9">
-        <v>1.2</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>59.5</v>
-      </c>
-      <c r="AB9">
-        <v>59.7</v>
-      </c>
-      <c r="AC9">
-        <v>60.3</v>
-      </c>
-      <c r="AD9">
-        <v>60.5</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0.02</v>
-      </c>
-      <c r="AG9">
-        <v>0.02</v>
-      </c>
-      <c r="AH9">
-        <v>1</v>
-      </c>
-      <c r="AI9">
-        <v>1</v>
-      </c>
-      <c r="AJ9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>800</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>800</v>
-      </c>
-      <c r="E10">
-        <v>105</v>
-      </c>
-      <c r="F10">
-        <v>23</v>
-      </c>
-      <c r="G10">
-        <v>237.6</v>
-      </c>
-      <c r="H10">
-        <v>60</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>999</v>
-      </c>
-      <c r="N10">
-        <v>-999</v>
-      </c>
-      <c r="O10">
-        <v>999</v>
-      </c>
-      <c r="P10">
-        <v>0.8</v>
-      </c>
-      <c r="Q10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R10">
-        <v>-1</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>999</v>
-      </c>
-      <c r="V10">
-        <v>0.88</v>
-      </c>
-      <c r="W10">
-        <v>0.9</v>
-      </c>
-      <c r="X10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y10">
-        <v>1.2</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>59.5</v>
-      </c>
-      <c r="AB10">
-        <v>59.7</v>
-      </c>
-      <c r="AC10">
-        <v>60.3</v>
-      </c>
-      <c r="AD10">
-        <v>60.5</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0.02</v>
-      </c>
-      <c r="AG10">
-        <v>0.02</v>
-      </c>
-      <c r="AH10">
-        <v>1</v>
-      </c>
-      <c r="AI10">
-        <v>1</v>
-      </c>
-      <c r="AJ10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>801</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>801</v>
-      </c>
-      <c r="E11">
-        <v>114</v>
-      </c>
-      <c r="F11">
-        <v>24</v>
-      </c>
-      <c r="G11">
-        <v>2.04</v>
-      </c>
-      <c r="H11">
-        <v>60</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>999</v>
-      </c>
-      <c r="N11">
-        <v>-999</v>
-      </c>
-      <c r="O11">
-        <v>999</v>
-      </c>
-      <c r="P11">
-        <v>0.8</v>
-      </c>
-      <c r="Q11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R11">
-        <v>-1</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>999</v>
-      </c>
-      <c r="V11">
-        <v>0.88</v>
-      </c>
-      <c r="W11">
-        <v>0.9</v>
-      </c>
-      <c r="X11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y11">
-        <v>1.2</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>59.5</v>
-      </c>
-      <c r="AB11">
-        <v>59.7</v>
-      </c>
-      <c r="AC11">
-        <v>60.3</v>
-      </c>
-      <c r="AD11">
-        <v>60.5</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0.02</v>
-      </c>
-      <c r="AG11">
-        <v>0.02</v>
-      </c>
-      <c r="AH11">
-        <v>1</v>
-      </c>
-      <c r="AI11">
-        <v>1</v>
-      </c>
-      <c r="AJ11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>802</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>802</v>
-      </c>
-      <c r="E12">
-        <v>115</v>
-      </c>
-      <c r="F12">
-        <v>25</v>
-      </c>
-      <c r="G12">
-        <v>180</v>
-      </c>
-      <c r="H12">
-        <v>60</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>999</v>
-      </c>
-      <c r="N12">
-        <v>-999</v>
-      </c>
-      <c r="O12">
-        <v>999</v>
-      </c>
-      <c r="P12">
-        <v>0.8</v>
-      </c>
-      <c r="Q12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R12">
-        <v>-1</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>999</v>
-      </c>
-      <c r="V12">
-        <v>0.88</v>
-      </c>
-      <c r="W12">
-        <v>0.9</v>
-      </c>
-      <c r="X12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y12">
-        <v>1.2</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>59.5</v>
-      </c>
-      <c r="AB12">
-        <v>59.7</v>
-      </c>
-      <c r="AC12">
-        <v>60.3</v>
-      </c>
-      <c r="AD12">
-        <v>60.5</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0.02</v>
-      </c>
-      <c r="AG12">
-        <v>0.02</v>
-      </c>
-      <c r="AH12">
-        <v>1</v>
-      </c>
-      <c r="AI12">
-        <v>1</v>
-      </c>
-      <c r="AJ12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>803</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>803</v>
-      </c>
-      <c r="E13">
-        <v>147</v>
-      </c>
-      <c r="F13">
-        <v>31</v>
-      </c>
-      <c r="G13">
-        <v>120.6</v>
-      </c>
-      <c r="H13">
-        <v>60</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>999</v>
-      </c>
-      <c r="N13">
-        <v>-999</v>
-      </c>
-      <c r="O13">
-        <v>999</v>
-      </c>
-      <c r="P13">
-        <v>0.8</v>
-      </c>
-      <c r="Q13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R13">
-        <v>-1</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>999</v>
-      </c>
-      <c r="V13">
-        <v>0.88</v>
-      </c>
-      <c r="W13">
-        <v>0.9</v>
-      </c>
-      <c r="X13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y13">
-        <v>1.2</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>59.5</v>
-      </c>
-      <c r="AB13">
-        <v>59.7</v>
-      </c>
-      <c r="AC13">
-        <v>60.3</v>
-      </c>
-      <c r="AD13">
-        <v>60.5</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0.02</v>
-      </c>
-      <c r="AG13">
-        <v>0.02</v>
-      </c>
-      <c r="AH13">
-        <v>1</v>
-      </c>
-      <c r="AI13">
-        <v>1</v>
-      </c>
-      <c r="AJ13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>804</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>804</v>
-      </c>
-      <c r="E14">
-        <v>125</v>
-      </c>
-      <c r="F14">
-        <v>26</v>
-      </c>
-      <c r="G14">
-        <v>156.06</v>
-      </c>
-      <c r="H14">
-        <v>60</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>999</v>
-      </c>
-      <c r="N14">
-        <v>-999</v>
-      </c>
-      <c r="O14">
-        <v>999</v>
-      </c>
-      <c r="P14">
-        <v>0.8</v>
-      </c>
-      <c r="Q14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R14">
-        <v>-1</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>999</v>
-      </c>
-      <c r="V14">
-        <v>0.88</v>
-      </c>
-      <c r="W14">
-        <v>0.9</v>
-      </c>
-      <c r="X14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y14">
-        <v>1.2</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>59.5</v>
-      </c>
-      <c r="AB14">
-        <v>59.7</v>
-      </c>
-      <c r="AC14">
-        <v>60.3</v>
-      </c>
-      <c r="AD14">
-        <v>60.5</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0.02</v>
-      </c>
-      <c r="AG14">
-        <v>0.02</v>
-      </c>
-      <c r="AH14">
-        <v>1</v>
-      </c>
-      <c r="AI14">
-        <v>1</v>
-      </c>
-      <c r="AJ14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>805</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>805</v>
-      </c>
-      <c r="E15">
-        <v>126</v>
-      </c>
-      <c r="F15">
-        <v>27</v>
-      </c>
-      <c r="G15">
-        <v>156.06</v>
-      </c>
-      <c r="H15">
-        <v>60</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>999</v>
-      </c>
-      <c r="N15">
-        <v>-999</v>
-      </c>
-      <c r="O15">
-        <v>999</v>
-      </c>
-      <c r="P15">
-        <v>0.8</v>
-      </c>
-      <c r="Q15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R15">
-        <v>-1</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>999</v>
-      </c>
-      <c r="V15">
-        <v>0.88</v>
-      </c>
-      <c r="W15">
-        <v>0.9</v>
-      </c>
-      <c r="X15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y15">
-        <v>1.2</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>59.5</v>
-      </c>
-      <c r="AB15">
-        <v>59.7</v>
-      </c>
-      <c r="AC15">
-        <v>60.3</v>
-      </c>
-      <c r="AD15">
-        <v>60.5</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0.02</v>
-      </c>
-      <c r="AG15">
-        <v>0.02</v>
-      </c>
-      <c r="AH15">
-        <v>1</v>
-      </c>
-      <c r="AI15">
-        <v>1</v>
-      </c>
-      <c r="AJ15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>806</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>806</v>
-      </c>
-      <c r="E16">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>28</v>
-      </c>
-      <c r="G16">
-        <v>156.06</v>
-      </c>
-      <c r="H16">
-        <v>60</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>999</v>
-      </c>
-      <c r="N16">
-        <v>-999</v>
-      </c>
-      <c r="O16">
-        <v>999</v>
-      </c>
-      <c r="P16">
-        <v>0.8</v>
-      </c>
-      <c r="Q16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R16">
-        <v>-1</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>999</v>
-      </c>
-      <c r="V16">
-        <v>0.88</v>
-      </c>
-      <c r="W16">
-        <v>0.9</v>
-      </c>
-      <c r="X16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y16">
-        <v>1.2</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>59.5</v>
-      </c>
-      <c r="AB16">
-        <v>59.7</v>
-      </c>
-      <c r="AC16">
-        <v>60.3</v>
-      </c>
-      <c r="AD16">
-        <v>60.5</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0.02</v>
-      </c>
-      <c r="AG16">
-        <v>0.02</v>
-      </c>
-      <c r="AH16">
-        <v>1</v>
-      </c>
-      <c r="AI16">
-        <v>1</v>
-      </c>
-      <c r="AJ16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>807</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>807</v>
-      </c>
-      <c r="E17">
-        <v>135</v>
-      </c>
-      <c r="F17">
-        <v>29</v>
-      </c>
-      <c r="G17">
-        <v>535.67999999999995</v>
-      </c>
-      <c r="H17">
-        <v>60</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>999</v>
-      </c>
-      <c r="N17">
-        <v>-999</v>
-      </c>
-      <c r="O17">
-        <v>999</v>
-      </c>
-      <c r="P17">
-        <v>0.8</v>
-      </c>
-      <c r="Q17">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R17">
-        <v>-1</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>999</v>
-      </c>
-      <c r="V17">
-        <v>0.88</v>
-      </c>
-      <c r="W17">
-        <v>0.9</v>
-      </c>
-      <c r="X17">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y17">
-        <v>1.2</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>59.5</v>
-      </c>
-      <c r="AB17">
-        <v>59.7</v>
-      </c>
-      <c r="AC17">
-        <v>60.3</v>
-      </c>
-      <c r="AD17">
-        <v>60.5</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0.02</v>
-      </c>
-      <c r="AG17">
-        <v>0.02</v>
-      </c>
-      <c r="AH17">
-        <v>1</v>
-      </c>
-      <c r="AI17">
-        <v>1</v>
-      </c>
-      <c r="AJ17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>808</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>808</v>
-      </c>
-      <c r="E18">
-        <v>136</v>
-      </c>
-      <c r="F18">
-        <v>30</v>
-      </c>
-      <c r="G18">
-        <v>535.67999999999995</v>
-      </c>
-      <c r="H18">
-        <v>60</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>999</v>
-      </c>
-      <c r="N18">
-        <v>-999</v>
-      </c>
-      <c r="O18">
-        <v>999</v>
-      </c>
-      <c r="P18">
-        <v>0.8</v>
-      </c>
-      <c r="Q18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R18">
-        <v>-1</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>999</v>
-      </c>
-      <c r="V18">
-        <v>0.88</v>
-      </c>
-      <c r="W18">
-        <v>0.9</v>
-      </c>
-      <c r="X18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y18">
-        <v>1.2</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>59.5</v>
-      </c>
-      <c r="AB18">
-        <v>59.7</v>
-      </c>
-      <c r="AC18">
-        <v>60.3</v>
-      </c>
-      <c r="AD18">
-        <v>60.5</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0.02</v>
-      </c>
-      <c r="AG18">
-        <v>0.02</v>
-      </c>
-      <c r="AH18">
-        <v>1</v>
-      </c>
-      <c r="AI18">
-        <v>1</v>
-      </c>
-      <c r="AJ18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>809</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>809</v>
-      </c>
-      <c r="E19">
-        <v>151</v>
-      </c>
-      <c r="F19">
-        <v>32</v>
-      </c>
-      <c r="G19">
-        <v>6.48</v>
-      </c>
-      <c r="H19">
-        <v>60</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>999</v>
-      </c>
-      <c r="N19">
-        <v>-999</v>
-      </c>
-      <c r="O19">
-        <v>999</v>
-      </c>
-      <c r="P19">
-        <v>0.8</v>
-      </c>
-      <c r="Q19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R19">
-        <v>-1</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>999</v>
-      </c>
-      <c r="V19">
-        <v>0.88</v>
-      </c>
-      <c r="W19">
-        <v>0.9</v>
-      </c>
-      <c r="X19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y19">
-        <v>1.2</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>59.5</v>
-      </c>
-      <c r="AB19">
-        <v>59.7</v>
-      </c>
-      <c r="AC19">
-        <v>60.3</v>
-      </c>
-      <c r="AD19">
-        <v>60.5</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0.02</v>
-      </c>
-      <c r="AG19">
-        <v>0.02</v>
-      </c>
-      <c r="AH19">
-        <v>1</v>
-      </c>
-      <c r="AI19">
-        <v>1</v>
-      </c>
-      <c r="AJ19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>810</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>810</v>
-      </c>
-      <c r="E20">
-        <v>152</v>
-      </c>
-      <c r="F20">
-        <v>33</v>
-      </c>
-      <c r="G20">
-        <v>92.67</v>
-      </c>
-      <c r="H20">
-        <v>60</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>999</v>
-      </c>
-      <c r="N20">
-        <v>-999</v>
-      </c>
-      <c r="O20">
-        <v>999</v>
-      </c>
-      <c r="P20">
-        <v>0.8</v>
-      </c>
-      <c r="Q20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R20">
-        <v>-1</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>999</v>
-      </c>
-      <c r="V20">
-        <v>0.88</v>
-      </c>
-      <c r="W20">
-        <v>0.9</v>
-      </c>
-      <c r="X20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y20">
-        <v>1.2</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>59.5</v>
-      </c>
-      <c r="AB20">
-        <v>59.7</v>
-      </c>
-      <c r="AC20">
-        <v>60.3</v>
-      </c>
-      <c r="AD20">
-        <v>60.5</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0.02</v>
-      </c>
-      <c r="AG20">
-        <v>0.02</v>
-      </c>
-      <c r="AH20">
-        <v>1</v>
-      </c>
-      <c r="AI20">
-        <v>1</v>
-      </c>
-      <c r="AJ20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>811</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>811</v>
-      </c>
-      <c r="E21">
-        <v>153</v>
-      </c>
-      <c r="F21">
-        <v>34</v>
-      </c>
-      <c r="G21">
-        <v>92.67</v>
-      </c>
-      <c r="H21">
-        <v>60</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>999</v>
-      </c>
-      <c r="N21">
-        <v>-999</v>
-      </c>
-      <c r="O21">
-        <v>999</v>
-      </c>
-      <c r="P21">
-        <v>0.8</v>
-      </c>
-      <c r="Q21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R21">
-        <v>-1</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>999</v>
-      </c>
-      <c r="V21">
-        <v>0.88</v>
-      </c>
-      <c r="W21">
-        <v>0.9</v>
-      </c>
-      <c r="X21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y21">
-        <v>1.2</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>59.5</v>
-      </c>
-      <c r="AB21">
-        <v>59.7</v>
-      </c>
-      <c r="AC21">
-        <v>60.3</v>
-      </c>
-      <c r="AD21">
-        <v>60.5</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0.02</v>
-      </c>
-      <c r="AG21">
-        <v>0.02</v>
-      </c>
-      <c r="AH21">
-        <v>1</v>
-      </c>
-      <c r="AI21">
-        <v>1</v>
-      </c>
-      <c r="AJ21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>812</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>812</v>
-      </c>
-      <c r="E22">
-        <v>154</v>
-      </c>
-      <c r="F22">
-        <v>35</v>
-      </c>
-      <c r="G22">
-        <v>92.67</v>
-      </c>
-      <c r="H22">
-        <v>60</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>999</v>
-      </c>
-      <c r="N22">
-        <v>-999</v>
-      </c>
-      <c r="O22">
-        <v>999</v>
-      </c>
-      <c r="P22">
-        <v>0.8</v>
-      </c>
-      <c r="Q22">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R22">
-        <v>-1</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>999</v>
-      </c>
-      <c r="V22">
-        <v>0.88</v>
-      </c>
-      <c r="W22">
-        <v>0.9</v>
-      </c>
-      <c r="X22">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y22">
-        <v>1.2</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>59.5</v>
-      </c>
-      <c r="AB22">
-        <v>59.7</v>
-      </c>
-      <c r="AC22">
-        <v>60.3</v>
-      </c>
-      <c r="AD22">
-        <v>60.5</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0.02</v>
-      </c>
-      <c r="AG22">
-        <v>0.02</v>
-      </c>
-      <c r="AH22">
-        <v>1</v>
-      </c>
-      <c r="AI22">
-        <v>1</v>
-      </c>
-      <c r="AJ22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>813</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>813</v>
-      </c>
-      <c r="E23">
-        <v>155</v>
-      </c>
-      <c r="F23">
-        <v>36</v>
-      </c>
-      <c r="G23">
-        <v>92.67</v>
-      </c>
-      <c r="H23">
-        <v>60</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>999</v>
-      </c>
-      <c r="N23">
-        <v>-999</v>
-      </c>
-      <c r="O23">
-        <v>999</v>
-      </c>
-      <c r="P23">
-        <v>0.8</v>
-      </c>
-      <c r="Q23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R23">
-        <v>-1</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>999</v>
-      </c>
-      <c r="V23">
-        <v>0.88</v>
-      </c>
-      <c r="W23">
-        <v>0.9</v>
-      </c>
-      <c r="X23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y23">
-        <v>1.2</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>59.5</v>
-      </c>
-      <c r="AB23">
-        <v>59.7</v>
-      </c>
-      <c r="AC23">
-        <v>60.3</v>
-      </c>
-      <c r="AD23">
-        <v>60.5</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0.02</v>
-      </c>
-      <c r="AG23">
-        <v>0.02</v>
-      </c>
-      <c r="AH23">
-        <v>1</v>
-      </c>
-      <c r="AI23">
-        <v>1</v>
-      </c>
-      <c r="AJ23">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17617,7 +14135,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -17634,368 +14152,3406 @@
         <v>214</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>777</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+      <c r="H2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>778</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>778</v>
+      </c>
+      <c r="E3">
+        <v>68</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>779</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>779</v>
+      </c>
+      <c r="E4">
+        <v>69</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+      <c r="G4">
+        <v>0.1</v>
+      </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>780</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>780</v>
+      </c>
+      <c r="E5">
+        <v>70</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="H5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>781</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>781</v>
+      </c>
+      <c r="E6">
+        <v>71</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>782</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>782</v>
+      </c>
+      <c r="E7">
+        <v>72</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>783</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>783</v>
+      </c>
+      <c r="E8">
+        <v>73</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>784</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>784</v>
+      </c>
+      <c r="E9">
+        <v>104</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>785</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>785</v>
+      </c>
+      <c r="E10">
+        <v>105</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>786</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>786</v>
+      </c>
+      <c r="E11">
+        <v>114</v>
+      </c>
+      <c r="F11">
+        <v>60</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+      <c r="H11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>787</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>787</v>
+      </c>
+      <c r="E12">
+        <v>115</v>
+      </c>
+      <c r="F12">
+        <v>60</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>788</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>788</v>
+      </c>
+      <c r="E13">
+        <v>147</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>789</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>789</v>
+      </c>
+      <c r="E14">
+        <v>125</v>
+      </c>
+      <c r="F14">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+      <c r="H14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>790</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>790</v>
+      </c>
+      <c r="E15">
+        <v>126</v>
+      </c>
+      <c r="F15">
+        <v>60</v>
+      </c>
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>791</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>791</v>
+      </c>
+      <c r="E16">
+        <v>127</v>
+      </c>
+      <c r="F16">
+        <v>60</v>
+      </c>
+      <c r="G16">
+        <v>0.1</v>
+      </c>
+      <c r="H16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>792</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>792</v>
+      </c>
+      <c r="E17">
+        <v>135</v>
+      </c>
+      <c r="F17">
+        <v>60</v>
+      </c>
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>793</v>
+      </c>
+      <c r="E18">
+        <v>136</v>
+      </c>
+      <c r="F18">
+        <v>60</v>
+      </c>
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>794</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>794</v>
+      </c>
+      <c r="E19">
+        <v>151</v>
+      </c>
+      <c r="F19">
+        <v>60</v>
+      </c>
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+      <c r="H19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>795</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>795</v>
+      </c>
+      <c r="E20">
+        <v>152</v>
+      </c>
+      <c r="F20">
+        <v>60</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>796</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>796</v>
+      </c>
+      <c r="E21">
+        <v>153</v>
+      </c>
+      <c r="F21">
+        <v>60</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>797</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>797</v>
+      </c>
+      <c r="E22">
+        <v>154</v>
+      </c>
+      <c r="F22">
+        <v>60</v>
+      </c>
+      <c r="G22">
+        <v>0.1</v>
+      </c>
+      <c r="H22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>798</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>798</v>
+      </c>
+      <c r="E23">
+        <v>155</v>
+      </c>
+      <c r="F23">
+        <v>60</v>
+      </c>
+      <c r="G23">
+        <v>0.1</v>
+      </c>
+      <c r="H23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>799</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>799</v>
+      </c>
+      <c r="E24">
+        <v>76</v>
+      </c>
+      <c r="F24">
+        <v>60</v>
+      </c>
+      <c r="G24">
+        <v>0.1</v>
+      </c>
+      <c r="H24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>800</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>800</v>
+      </c>
+      <c r="E25">
+        <v>183</v>
+      </c>
+      <c r="F25">
+        <v>60</v>
+      </c>
+      <c r="G25">
+        <v>0.1</v>
+      </c>
+      <c r="H25">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:AK25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>657</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>377</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>771</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>772</v>
+        <v>806</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>773</v>
+        <v>807</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>828</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+      <c r="F2">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>820</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>820</v>
-      </c>
-      <c r="E2">
+      <c r="G2">
+        <v>180.48</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.2</v>
+      </c>
+      <c r="J2">
+        <v>0.8</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>60</v>
+      </c>
+      <c r="N2">
+        <v>75</v>
+      </c>
+      <c r="O2">
+        <v>-75</v>
+      </c>
+      <c r="P2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T2">
+        <v>0.5</v>
+      </c>
+      <c r="U2">
+        <v>20</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>999</v>
+      </c>
+      <c r="Y2">
+        <v>-999</v>
+      </c>
+      <c r="Z2">
+        <v>5</v>
+      </c>
+      <c r="AA2">
+        <v>30</v>
+      </c>
+      <c r="AB2">
+        <v>999</v>
+      </c>
+      <c r="AC2">
+        <v>-999</v>
+      </c>
+      <c r="AD2">
+        <v>0.1</v>
+      </c>
+      <c r="AE2">
+        <v>1.5</v>
+      </c>
+      <c r="AF2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>0.15</v>
+      </c>
+      <c r="AJ2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>829</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>829</v>
+      </c>
+      <c r="E3">
+        <v>68</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>33.5</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.2</v>
+      </c>
+      <c r="J3">
+        <v>0.8</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>60</v>
+      </c>
+      <c r="N3">
+        <v>75</v>
+      </c>
+      <c r="O3">
+        <v>-75</v>
+      </c>
+      <c r="P3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T3">
+        <v>0.5</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
+        <v>999</v>
+      </c>
+      <c r="Y3">
+        <v>-999</v>
+      </c>
+      <c r="Z3">
+        <v>5</v>
+      </c>
+      <c r="AA3">
+        <v>30</v>
+      </c>
+      <c r="AB3">
+        <v>999</v>
+      </c>
+      <c r="AC3">
+        <v>-999</v>
+      </c>
+      <c r="AD3">
+        <v>0.1</v>
+      </c>
+      <c r="AE3">
+        <v>1.5</v>
+      </c>
+      <c r="AF3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>0.15</v>
+      </c>
+      <c r="AJ3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>830</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>830</v>
+      </c>
+      <c r="E4">
+        <v>69</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>33.5</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.2</v>
+      </c>
+      <c r="J4">
+        <v>0.8</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>60</v>
+      </c>
+      <c r="N4">
+        <v>75</v>
+      </c>
+      <c r="O4">
+        <v>-75</v>
+      </c>
+      <c r="P4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T4">
+        <v>0.5</v>
+      </c>
+      <c r="U4">
+        <v>20</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>10</v>
+      </c>
+      <c r="X4">
+        <v>999</v>
+      </c>
+      <c r="Y4">
+        <v>-999</v>
+      </c>
+      <c r="Z4">
+        <v>5</v>
+      </c>
+      <c r="AA4">
+        <v>30</v>
+      </c>
+      <c r="AB4">
+        <v>999</v>
+      </c>
+      <c r="AC4">
+        <v>-999</v>
+      </c>
+      <c r="AD4">
+        <v>0.1</v>
+      </c>
+      <c r="AE4">
+        <v>1.5</v>
+      </c>
+      <c r="AF4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>0.15</v>
+      </c>
+      <c r="AJ4">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>831</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>831</v>
+      </c>
+      <c r="E5">
+        <v>70</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>33.5</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.2</v>
+      </c>
+      <c r="J5">
+        <v>0.8</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>60</v>
+      </c>
+      <c r="N5">
+        <v>75</v>
+      </c>
+      <c r="O5">
+        <v>-75</v>
+      </c>
+      <c r="P5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T5">
+        <v>0.5</v>
+      </c>
+      <c r="U5">
+        <v>20</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="X5">
+        <v>999</v>
+      </c>
+      <c r="Y5">
+        <v>-999</v>
+      </c>
+      <c r="Z5">
+        <v>5</v>
+      </c>
+      <c r="AA5">
+        <v>30</v>
+      </c>
+      <c r="AB5">
+        <v>999</v>
+      </c>
+      <c r="AC5">
+        <v>-999</v>
+      </c>
+      <c r="AD5">
+        <v>0.1</v>
+      </c>
+      <c r="AE5">
+        <v>1.5</v>
+      </c>
+      <c r="AF5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>0.15</v>
+      </c>
+      <c r="AJ5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>832</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>832</v>
+      </c>
+      <c r="E6">
+        <v>71</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>33.5</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+      <c r="J6">
+        <v>0.8</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>60</v>
+      </c>
+      <c r="N6">
+        <v>75</v>
+      </c>
+      <c r="O6">
+        <v>-75</v>
+      </c>
+      <c r="P6">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T6">
+        <v>0.5</v>
+      </c>
+      <c r="U6">
+        <v>20</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>10</v>
+      </c>
+      <c r="X6">
+        <v>999</v>
+      </c>
+      <c r="Y6">
+        <v>-999</v>
+      </c>
+      <c r="Z6">
+        <v>5</v>
+      </c>
+      <c r="AA6">
+        <v>30</v>
+      </c>
+      <c r="AB6">
+        <v>999</v>
+      </c>
+      <c r="AC6">
+        <v>-999</v>
+      </c>
+      <c r="AD6">
+        <v>0.1</v>
+      </c>
+      <c r="AE6">
+        <v>1.5</v>
+      </c>
+      <c r="AF6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>0.15</v>
+      </c>
+      <c r="AJ6">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>833</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>833</v>
+      </c>
+      <c r="E7">
+        <v>72</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>33.5</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.2</v>
+      </c>
+      <c r="J7">
+        <v>0.8</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>60</v>
+      </c>
+      <c r="N7">
+        <v>75</v>
+      </c>
+      <c r="O7">
+        <v>-75</v>
+      </c>
+      <c r="P7">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T7">
+        <v>0.5</v>
+      </c>
+      <c r="U7">
+        <v>20</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7">
+        <v>999</v>
+      </c>
+      <c r="Y7">
+        <v>-999</v>
+      </c>
+      <c r="Z7">
+        <v>5</v>
+      </c>
+      <c r="AA7">
+        <v>30</v>
+      </c>
+      <c r="AB7">
+        <v>999</v>
+      </c>
+      <c r="AC7">
+        <v>-999</v>
+      </c>
+      <c r="AD7">
+        <v>0.1</v>
+      </c>
+      <c r="AE7">
+        <v>1.5</v>
+      </c>
+      <c r="AF7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>0.15</v>
+      </c>
+      <c r="AJ7">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>834</v>
+      </c>
+      <c r="E8">
+        <v>73</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>33.5</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.2</v>
+      </c>
+      <c r="J8">
+        <v>0.8</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>60</v>
+      </c>
+      <c r="N8">
+        <v>75</v>
+      </c>
+      <c r="O8">
+        <v>-75</v>
+      </c>
+      <c r="P8">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q8">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T8">
+        <v>0.5</v>
+      </c>
+      <c r="U8">
+        <v>20</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>10</v>
+      </c>
+      <c r="X8">
+        <v>999</v>
+      </c>
+      <c r="Y8">
+        <v>-999</v>
+      </c>
+      <c r="Z8">
+        <v>5</v>
+      </c>
+      <c r="AA8">
+        <v>30</v>
+      </c>
+      <c r="AB8">
+        <v>999</v>
+      </c>
+      <c r="AC8">
+        <v>-999</v>
+      </c>
+      <c r="AD8">
+        <v>0.1</v>
+      </c>
+      <c r="AE8">
+        <v>1.5</v>
+      </c>
+      <c r="AF8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>0.15</v>
+      </c>
+      <c r="AJ8">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>835</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>835</v>
+      </c>
+      <c r="E9">
+        <v>104</v>
+      </c>
+      <c r="F9">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>118.8</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.2</v>
+      </c>
+      <c r="J9">
+        <v>0.8</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>60</v>
+      </c>
+      <c r="N9">
+        <v>75</v>
+      </c>
+      <c r="O9">
+        <v>-75</v>
+      </c>
+      <c r="P9">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T9">
+        <v>0.5</v>
+      </c>
+      <c r="U9">
+        <v>20</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>10</v>
+      </c>
+      <c r="X9">
+        <v>999</v>
+      </c>
+      <c r="Y9">
+        <v>-999</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9">
+        <v>30</v>
+      </c>
+      <c r="AB9">
+        <v>999</v>
+      </c>
+      <c r="AC9">
+        <v>-999</v>
+      </c>
+      <c r="AD9">
+        <v>0.1</v>
+      </c>
+      <c r="AE9">
+        <v>1.5</v>
+      </c>
+      <c r="AF9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>0.15</v>
+      </c>
+      <c r="AJ9">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>836</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>836</v>
+      </c>
+      <c r="E10">
+        <v>105</v>
+      </c>
+      <c r="F10">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>237.6</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.2</v>
+      </c>
+      <c r="J10">
+        <v>0.8</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>60</v>
+      </c>
+      <c r="N10">
+        <v>75</v>
+      </c>
+      <c r="O10">
+        <v>-75</v>
+      </c>
+      <c r="P10">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T10">
+        <v>0.5</v>
+      </c>
+      <c r="U10">
+        <v>20</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>10</v>
+      </c>
+      <c r="X10">
+        <v>999</v>
+      </c>
+      <c r="Y10">
+        <v>-999</v>
+      </c>
+      <c r="Z10">
+        <v>5</v>
+      </c>
+      <c r="AA10">
+        <v>30</v>
+      </c>
+      <c r="AB10">
+        <v>999</v>
+      </c>
+      <c r="AC10">
+        <v>-999</v>
+      </c>
+      <c r="AD10">
+        <v>0.1</v>
+      </c>
+      <c r="AE10">
+        <v>1.5</v>
+      </c>
+      <c r="AF10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>0.15</v>
+      </c>
+      <c r="AJ10">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>837</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>837</v>
+      </c>
+      <c r="E11">
+        <v>114</v>
+      </c>
+      <c r="F11">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>2.04</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.2</v>
+      </c>
+      <c r="J11">
+        <v>0.8</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>60</v>
+      </c>
+      <c r="N11">
+        <v>75</v>
+      </c>
+      <c r="O11">
+        <v>-75</v>
+      </c>
+      <c r="P11">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q11">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T11">
+        <v>0.5</v>
+      </c>
+      <c r="U11">
+        <v>20</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11">
+        <v>10</v>
+      </c>
+      <c r="X11">
+        <v>999</v>
+      </c>
+      <c r="Y11">
+        <v>-999</v>
+      </c>
+      <c r="Z11">
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>30</v>
+      </c>
+      <c r="AB11">
+        <v>999</v>
+      </c>
+      <c r="AC11">
+        <v>-999</v>
+      </c>
+      <c r="AD11">
+        <v>0.1</v>
+      </c>
+      <c r="AE11">
+        <v>1.5</v>
+      </c>
+      <c r="AF11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>0.15</v>
+      </c>
+      <c r="AJ11">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>838</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>838</v>
+      </c>
+      <c r="E12">
+        <v>115</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>180</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.2</v>
+      </c>
+      <c r="J12">
+        <v>0.8</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>60</v>
+      </c>
+      <c r="N12">
+        <v>75</v>
+      </c>
+      <c r="O12">
+        <v>-75</v>
+      </c>
+      <c r="P12">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q12">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T12">
+        <v>0.5</v>
+      </c>
+      <c r="U12">
+        <v>20</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>10</v>
+      </c>
+      <c r="X12">
+        <v>999</v>
+      </c>
+      <c r="Y12">
+        <v>-999</v>
+      </c>
+      <c r="Z12">
+        <v>5</v>
+      </c>
+      <c r="AA12">
+        <v>30</v>
+      </c>
+      <c r="AB12">
+        <v>999</v>
+      </c>
+      <c r="AC12">
+        <v>-999</v>
+      </c>
+      <c r="AD12">
+        <v>0.1</v>
+      </c>
+      <c r="AE12">
+        <v>1.5</v>
+      </c>
+      <c r="AF12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>0.15</v>
+      </c>
+      <c r="AJ12">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>839</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>839</v>
+      </c>
+      <c r="E13">
+        <v>147</v>
+      </c>
+      <c r="F13">
+        <v>31</v>
+      </c>
+      <c r="G13">
+        <v>120.6</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.2</v>
+      </c>
+      <c r="J13">
+        <v>0.8</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>60</v>
+      </c>
+      <c r="N13">
+        <v>75</v>
+      </c>
+      <c r="O13">
+        <v>-75</v>
+      </c>
+      <c r="P13">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q13">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T13">
+        <v>0.5</v>
+      </c>
+      <c r="U13">
+        <v>20</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>10</v>
+      </c>
+      <c r="X13">
+        <v>999</v>
+      </c>
+      <c r="Y13">
+        <v>-999</v>
+      </c>
+      <c r="Z13">
+        <v>5</v>
+      </c>
+      <c r="AA13">
+        <v>30</v>
+      </c>
+      <c r="AB13">
+        <v>999</v>
+      </c>
+      <c r="AC13">
+        <v>-999</v>
+      </c>
+      <c r="AD13">
+        <v>0.1</v>
+      </c>
+      <c r="AE13">
+        <v>1.5</v>
+      </c>
+      <c r="AF13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>0.15</v>
+      </c>
+      <c r="AJ13">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>840</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>840</v>
+      </c>
+      <c r="E14">
+        <v>125</v>
+      </c>
+      <c r="F14">
+        <v>26</v>
+      </c>
+      <c r="G14">
+        <v>156.06</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.2</v>
+      </c>
+      <c r="J14">
+        <v>0.8</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>60</v>
+      </c>
+      <c r="N14">
+        <v>75</v>
+      </c>
+      <c r="O14">
+        <v>-75</v>
+      </c>
+      <c r="P14">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q14">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T14">
+        <v>0.5</v>
+      </c>
+      <c r="U14">
+        <v>20</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>10</v>
+      </c>
+      <c r="X14">
+        <v>999</v>
+      </c>
+      <c r="Y14">
+        <v>-999</v>
+      </c>
+      <c r="Z14">
+        <v>5</v>
+      </c>
+      <c r="AA14">
+        <v>30</v>
+      </c>
+      <c r="AB14">
+        <v>999</v>
+      </c>
+      <c r="AC14">
+        <v>-999</v>
+      </c>
+      <c r="AD14">
+        <v>0.1</v>
+      </c>
+      <c r="AE14">
+        <v>1.5</v>
+      </c>
+      <c r="AF14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <v>0.15</v>
+      </c>
+      <c r="AJ14">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>841</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>841</v>
+      </c>
+      <c r="E15">
+        <v>126</v>
+      </c>
+      <c r="F15">
+        <v>27</v>
+      </c>
+      <c r="G15">
+        <v>156.06</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0.2</v>
+      </c>
+      <c r="J15">
+        <v>0.8</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>60</v>
+      </c>
+      <c r="N15">
+        <v>75</v>
+      </c>
+      <c r="O15">
+        <v>-75</v>
+      </c>
+      <c r="P15">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q15">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T15">
+        <v>0.5</v>
+      </c>
+      <c r="U15">
+        <v>20</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>10</v>
+      </c>
+      <c r="X15">
+        <v>999</v>
+      </c>
+      <c r="Y15">
+        <v>-999</v>
+      </c>
+      <c r="Z15">
+        <v>5</v>
+      </c>
+      <c r="AA15">
+        <v>30</v>
+      </c>
+      <c r="AB15">
+        <v>999</v>
+      </c>
+      <c r="AC15">
+        <v>-999</v>
+      </c>
+      <c r="AD15">
+        <v>0.1</v>
+      </c>
+      <c r="AE15">
+        <v>1.5</v>
+      </c>
+      <c r="AF15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>0.15</v>
+      </c>
+      <c r="AJ15">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>842</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>842</v>
+      </c>
+      <c r="E16">
+        <v>127</v>
+      </c>
+      <c r="F16">
+        <v>28</v>
+      </c>
+      <c r="G16">
+        <v>156.06</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0.2</v>
+      </c>
+      <c r="J16">
+        <v>0.8</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>60</v>
+      </c>
+      <c r="N16">
+        <v>75</v>
+      </c>
+      <c r="O16">
+        <v>-75</v>
+      </c>
+      <c r="P16">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q16">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T16">
+        <v>0.5</v>
+      </c>
+      <c r="U16">
+        <v>20</v>
+      </c>
+      <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>10</v>
+      </c>
+      <c r="X16">
+        <v>999</v>
+      </c>
+      <c r="Y16">
+        <v>-999</v>
+      </c>
+      <c r="Z16">
+        <v>5</v>
+      </c>
+      <c r="AA16">
+        <v>30</v>
+      </c>
+      <c r="AB16">
+        <v>999</v>
+      </c>
+      <c r="AC16">
+        <v>-999</v>
+      </c>
+      <c r="AD16">
+        <v>0.1</v>
+      </c>
+      <c r="AE16">
+        <v>1.5</v>
+      </c>
+      <c r="AF16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>0.15</v>
+      </c>
+      <c r="AJ16">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>843</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>843</v>
+      </c>
+      <c r="E17">
+        <v>135</v>
+      </c>
+      <c r="F17">
+        <v>29</v>
+      </c>
+      <c r="G17">
+        <v>535.67999999999995</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0.2</v>
+      </c>
+      <c r="J17">
+        <v>0.8</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>60</v>
+      </c>
+      <c r="N17">
+        <v>75</v>
+      </c>
+      <c r="O17">
+        <v>-75</v>
+      </c>
+      <c r="P17">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q17">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T17">
+        <v>0.5</v>
+      </c>
+      <c r="U17">
+        <v>20</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>10</v>
+      </c>
+      <c r="X17">
+        <v>999</v>
+      </c>
+      <c r="Y17">
+        <v>-999</v>
+      </c>
+      <c r="Z17">
+        <v>5</v>
+      </c>
+      <c r="AA17">
+        <v>30</v>
+      </c>
+      <c r="AB17">
+        <v>999</v>
+      </c>
+      <c r="AC17">
+        <v>-999</v>
+      </c>
+      <c r="AD17">
+        <v>0.1</v>
+      </c>
+      <c r="AE17">
+        <v>1.5</v>
+      </c>
+      <c r="AF17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
+        <v>0.15</v>
+      </c>
+      <c r="AJ17">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>844</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>844</v>
+      </c>
+      <c r="E18">
+        <v>136</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>535.67999999999995</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.2</v>
+      </c>
+      <c r="J18">
+        <v>0.8</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>60</v>
+      </c>
+      <c r="N18">
+        <v>75</v>
+      </c>
+      <c r="O18">
+        <v>-75</v>
+      </c>
+      <c r="P18">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q18">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T18">
+        <v>0.5</v>
+      </c>
+      <c r="U18">
+        <v>20</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>10</v>
+      </c>
+      <c r="X18">
+        <v>999</v>
+      </c>
+      <c r="Y18">
+        <v>-999</v>
+      </c>
+      <c r="Z18">
+        <v>5</v>
+      </c>
+      <c r="AA18">
+        <v>30</v>
+      </c>
+      <c r="AB18">
+        <v>999</v>
+      </c>
+      <c r="AC18">
+        <v>-999</v>
+      </c>
+      <c r="AD18">
+        <v>0.1</v>
+      </c>
+      <c r="AE18">
+        <v>1.5</v>
+      </c>
+      <c r="AF18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>0.15</v>
+      </c>
+      <c r="AJ18">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>845</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>845</v>
+      </c>
+      <c r="E19">
+        <v>151</v>
+      </c>
+      <c r="F19">
+        <v>32</v>
+      </c>
+      <c r="G19">
+        <v>6.48</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.2</v>
+      </c>
+      <c r="J19">
+        <v>0.8</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>60</v>
+      </c>
+      <c r="N19">
+        <v>75</v>
+      </c>
+      <c r="O19">
+        <v>-75</v>
+      </c>
+      <c r="P19">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q19">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T19">
+        <v>0.5</v>
+      </c>
+      <c r="U19">
+        <v>20</v>
+      </c>
+      <c r="V19">
+        <v>3</v>
+      </c>
+      <c r="W19">
+        <v>10</v>
+      </c>
+      <c r="X19">
+        <v>999</v>
+      </c>
+      <c r="Y19">
+        <v>-999</v>
+      </c>
+      <c r="Z19">
+        <v>5</v>
+      </c>
+      <c r="AA19">
+        <v>30</v>
+      </c>
+      <c r="AB19">
+        <v>999</v>
+      </c>
+      <c r="AC19">
+        <v>-999</v>
+      </c>
+      <c r="AD19">
+        <v>0.1</v>
+      </c>
+      <c r="AE19">
+        <v>1.5</v>
+      </c>
+      <c r="AF19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>0.15</v>
+      </c>
+      <c r="AJ19">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>846</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>846</v>
+      </c>
+      <c r="E20">
+        <v>152</v>
+      </c>
+      <c r="F20">
+        <v>33</v>
+      </c>
+      <c r="G20">
+        <v>92.67</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0.2</v>
+      </c>
+      <c r="J20">
+        <v>0.8</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>60</v>
+      </c>
+      <c r="N20">
+        <v>75</v>
+      </c>
+      <c r="O20">
+        <v>-75</v>
+      </c>
+      <c r="P20">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q20">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T20">
+        <v>0.5</v>
+      </c>
+      <c r="U20">
+        <v>20</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <v>10</v>
+      </c>
+      <c r="X20">
+        <v>999</v>
+      </c>
+      <c r="Y20">
+        <v>-999</v>
+      </c>
+      <c r="Z20">
+        <v>5</v>
+      </c>
+      <c r="AA20">
+        <v>30</v>
+      </c>
+      <c r="AB20">
+        <v>999</v>
+      </c>
+      <c r="AC20">
+        <v>-999</v>
+      </c>
+      <c r="AD20">
+        <v>0.1</v>
+      </c>
+      <c r="AE20">
+        <v>1.5</v>
+      </c>
+      <c r="AF20">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>1</v>
+      </c>
+      <c r="AI20">
+        <v>0.15</v>
+      </c>
+      <c r="AJ20">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>847</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>847</v>
+      </c>
+      <c r="E21">
+        <v>153</v>
+      </c>
+      <c r="F21">
+        <v>34</v>
+      </c>
+      <c r="G21">
+        <v>92.67</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0.2</v>
+      </c>
+      <c r="J21">
+        <v>0.8</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>60</v>
+      </c>
+      <c r="N21">
+        <v>75</v>
+      </c>
+      <c r="O21">
+        <v>-75</v>
+      </c>
+      <c r="P21">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q21">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T21">
+        <v>0.5</v>
+      </c>
+      <c r="U21">
+        <v>20</v>
+      </c>
+      <c r="V21">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>10</v>
+      </c>
+      <c r="X21">
+        <v>999</v>
+      </c>
+      <c r="Y21">
+        <v>-999</v>
+      </c>
+      <c r="Z21">
+        <v>5</v>
+      </c>
+      <c r="AA21">
+        <v>30</v>
+      </c>
+      <c r="AB21">
+        <v>999</v>
+      </c>
+      <c r="AC21">
+        <v>-999</v>
+      </c>
+      <c r="AD21">
+        <v>0.1</v>
+      </c>
+      <c r="AE21">
+        <v>1.5</v>
+      </c>
+      <c r="AF21">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>1</v>
+      </c>
+      <c r="AI21">
+        <v>0.15</v>
+      </c>
+      <c r="AJ21">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>848</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>848</v>
+      </c>
+      <c r="E22">
+        <v>154</v>
+      </c>
+      <c r="F22">
+        <v>35</v>
+      </c>
+      <c r="G22">
+        <v>92.67</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0.2</v>
+      </c>
+      <c r="J22">
+        <v>0.8</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>60</v>
+      </c>
+      <c r="N22">
+        <v>75</v>
+      </c>
+      <c r="O22">
+        <v>-75</v>
+      </c>
+      <c r="P22">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q22">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T22">
+        <v>0.5</v>
+      </c>
+      <c r="U22">
+        <v>20</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>10</v>
+      </c>
+      <c r="X22">
+        <v>999</v>
+      </c>
+      <c r="Y22">
+        <v>-999</v>
+      </c>
+      <c r="Z22">
+        <v>5</v>
+      </c>
+      <c r="AA22">
+        <v>30</v>
+      </c>
+      <c r="AB22">
+        <v>999</v>
+      </c>
+      <c r="AC22">
+        <v>-999</v>
+      </c>
+      <c r="AD22">
+        <v>0.1</v>
+      </c>
+      <c r="AE22">
+        <v>1.5</v>
+      </c>
+      <c r="AF22">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22">
+        <v>0.15</v>
+      </c>
+      <c r="AJ22">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>849</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>849</v>
+      </c>
+      <c r="E23">
+        <v>155</v>
+      </c>
+      <c r="F23">
+        <v>36</v>
+      </c>
+      <c r="G23">
+        <v>92.67</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0.2</v>
+      </c>
+      <c r="J23">
+        <v>0.8</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>60</v>
+      </c>
+      <c r="N23">
+        <v>75</v>
+      </c>
+      <c r="O23">
+        <v>-75</v>
+      </c>
+      <c r="P23">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q23">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T23">
+        <v>0.5</v>
+      </c>
+      <c r="U23">
+        <v>20</v>
+      </c>
+      <c r="V23">
+        <v>3</v>
+      </c>
+      <c r="W23">
+        <v>10</v>
+      </c>
+      <c r="X23">
+        <v>999</v>
+      </c>
+      <c r="Y23">
+        <v>-999</v>
+      </c>
+      <c r="Z23">
+        <v>5</v>
+      </c>
+      <c r="AA23">
+        <v>30</v>
+      </c>
+      <c r="AB23">
+        <v>999</v>
+      </c>
+      <c r="AC23">
+        <v>-999</v>
+      </c>
+      <c r="AD23">
+        <v>0.1</v>
+      </c>
+      <c r="AE23">
+        <v>1.5</v>
+      </c>
+      <c r="AF23">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>0.15</v>
+      </c>
+      <c r="AJ23">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>850</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>850</v>
+      </c>
+      <c r="E24">
         <v>76</v>
       </c>
-      <c r="F2">
+      <c r="F24">
         <v>14</v>
       </c>
-      <c r="G2">
+      <c r="G24">
         <v>4.8</v>
       </c>
-      <c r="H2">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0.2</v>
+      </c>
+      <c r="J24">
+        <v>0.8</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
         <v>60</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="M2">
+      <c r="N24">
+        <v>75</v>
+      </c>
+      <c r="O24">
+        <v>-75</v>
+      </c>
+      <c r="P24">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q24">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T24">
+        <v>0.5</v>
+      </c>
+      <c r="U24">
+        <v>20</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>10</v>
+      </c>
+      <c r="X24">
         <v>999</v>
       </c>
-      <c r="N2">
+      <c r="Y24">
         <v>-999</v>
       </c>
-      <c r="O2">
+      <c r="Z24">
+        <v>5</v>
+      </c>
+      <c r="AA24">
+        <v>30</v>
+      </c>
+      <c r="AB24">
         <v>999</v>
       </c>
-      <c r="P2">
+      <c r="AC24">
+        <v>-999</v>
+      </c>
+      <c r="AD24">
+        <v>0.1</v>
+      </c>
+      <c r="AE24">
+        <v>1.5</v>
+      </c>
+      <c r="AF24">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>0.15</v>
+      </c>
+      <c r="AJ24">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>851</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>851</v>
+      </c>
+      <c r="E25">
+        <v>183</v>
+      </c>
+      <c r="F25">
+        <v>46</v>
+      </c>
+      <c r="G25">
+        <v>31.92</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0.2</v>
+      </c>
+      <c r="J25">
         <v>0.8</v>
       </c>
-      <c r="Q2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R2">
-        <v>-1</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>60</v>
+      </c>
+      <c r="N25">
+        <v>75</v>
+      </c>
+      <c r="O25">
+        <v>-75</v>
+      </c>
+      <c r="P25">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q25">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T25">
+        <v>0.5</v>
+      </c>
+      <c r="U25">
+        <v>20</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>10</v>
+      </c>
+      <c r="X25">
         <v>999</v>
       </c>
-      <c r="V2">
-        <v>0.88</v>
-      </c>
-      <c r="W2">
-        <v>0.9</v>
-      </c>
-      <c r="X2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y2">
-        <v>1.2</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>59.5</v>
-      </c>
-      <c r="AB2">
-        <v>59.7</v>
-      </c>
-      <c r="AC2">
-        <v>60.3</v>
-      </c>
-      <c r="AD2">
-        <v>60.5</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0.02</v>
-      </c>
-      <c r="AG2">
-        <v>0.02</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
-      </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
-      <c r="AK2">
-        <v>1</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>1</v>
-      </c>
-      <c r="AN2">
-        <v>0.5</v>
-      </c>
-      <c r="AO2">
-        <v>4.8</v>
-      </c>
-      <c r="AP2">
-        <v>1</v>
-      </c>
-      <c r="AQ2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>821</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>821</v>
-      </c>
-      <c r="E3">
-        <v>183</v>
-      </c>
-      <c r="F3">
-        <v>46</v>
-      </c>
-      <c r="G3">
-        <v>31.92</v>
-      </c>
-      <c r="H3">
-        <v>60</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="M3">
+      <c r="Y25">
+        <v>-999</v>
+      </c>
+      <c r="Z25">
+        <v>5</v>
+      </c>
+      <c r="AA25">
+        <v>30</v>
+      </c>
+      <c r="AB25">
         <v>999</v>
       </c>
-      <c r="N3">
+      <c r="AC25">
         <v>-999</v>
       </c>
-      <c r="O3">
-        <v>999</v>
-      </c>
-      <c r="P3">
-        <v>0.8</v>
-      </c>
-      <c r="Q3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R3">
-        <v>-1</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>999</v>
-      </c>
-      <c r="V3">
-        <v>0.88</v>
-      </c>
-      <c r="W3">
-        <v>0.9</v>
-      </c>
-      <c r="X3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y3">
-        <v>1.2</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>59.5</v>
-      </c>
-      <c r="AB3">
-        <v>59.7</v>
-      </c>
-      <c r="AC3">
-        <v>60.3</v>
-      </c>
-      <c r="AD3">
-        <v>60.5</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0.02</v>
-      </c>
-      <c r="AG3">
-        <v>0.02</v>
-      </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-      <c r="AK3">
-        <v>1</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>1</v>
-      </c>
-      <c r="AN3">
-        <v>0.5</v>
-      </c>
-      <c r="AO3">
-        <v>31.92</v>
-      </c>
-      <c r="AP3">
-        <v>1</v>
-      </c>
-      <c r="AQ3">
-        <v>1</v>
+      <c r="AD25">
+        <v>0.1</v>
+      </c>
+      <c r="AE25">
+        <v>1.5</v>
+      </c>
+      <c r="AF25">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>0.15</v>
+      </c>
+      <c r="AJ25">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -45064,11 +44620,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AE50"/>
+  <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:AE26"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -47393,78 +46949,6 @@
         <v>4.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/demo/deadband/cases/IL200_dyn_db2.xlsx
+++ b/demo/deadband/cases/IL200_dyn_db2.xlsx
@@ -13467,10 +13467,10 @@
         <v>0.005</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>3</v>
@@ -13582,10 +13582,10 @@
         <v>0.005</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>3</v>
@@ -13697,10 +13697,10 @@
         <v>0.005</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>3</v>
@@ -13812,10 +13812,10 @@
         <v>0.005</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>3</v>
@@ -13927,10 +13927,10 @@
         <v>0.005</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>3</v>
@@ -14042,10 +14042,10 @@
         <v>0.005</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>3</v>
@@ -14157,10 +14157,10 @@
         <v>0.005</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>3</v>
@@ -14272,10 +14272,10 @@
         <v>0.005</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>3</v>
@@ -14387,10 +14387,10 @@
         <v>0.005</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>3</v>
@@ -14502,10 +14502,10 @@
         <v>0.005</v>
       </c>
       <c r="T11" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U11" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>3</v>
@@ -14617,10 +14617,10 @@
         <v>0.005</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U12" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>3</v>
@@ -14732,10 +14732,10 @@
         <v>0.005</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>3</v>
@@ -14847,10 +14847,10 @@
         <v>0.005</v>
       </c>
       <c r="T14" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U14" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>3</v>
@@ -14962,10 +14962,10 @@
         <v>0.005</v>
       </c>
       <c r="T15" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>3</v>
@@ -15077,10 +15077,10 @@
         <v>0.005</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>3</v>
@@ -15192,10 +15192,10 @@
         <v>0.005</v>
       </c>
       <c r="T17" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>3</v>
@@ -15307,10 +15307,10 @@
         <v>0.005</v>
       </c>
       <c r="T18" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>3</v>
@@ -15422,10 +15422,10 @@
         <v>0.005</v>
       </c>
       <c r="T19" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U19" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>3</v>
@@ -15537,10 +15537,10 @@
         <v>0.005</v>
       </c>
       <c r="T20" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>3</v>
@@ -15652,10 +15652,10 @@
         <v>0.005</v>
       </c>
       <c r="T21" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U21" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>3</v>
@@ -15767,10 +15767,10 @@
         <v>0.005</v>
       </c>
       <c r="T22" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>3</v>
@@ -15882,10 +15882,10 @@
         <v>0.005</v>
       </c>
       <c r="T23" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U23" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>3</v>
@@ -15997,10 +15997,10 @@
         <v>0.005</v>
       </c>
       <c r="T24" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U24" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>3</v>
@@ -16112,10 +16112,10 @@
         <v>0.005</v>
       </c>
       <c r="T25" t="n">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="U25" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>3</v>

--- a/demo/deadband/cases/IL200_dyn_db2.xlsx
+++ b/demo/deadband/cases/IL200_dyn_db2.xlsx
@@ -19,8 +19,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TGOV1NDB" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SEXS" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BusFreq" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLL2" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REGF2" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PVD2" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ESD2" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12334,7 +12334,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12412,6 +12412,726 @@
         <v>0.1</v>
       </c>
       <c r="H2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BusFreq_2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BusFreq_2</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>65</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BusFreq_3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BusFreq_3</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>68</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BusFreq_4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BusFreq_4</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>69</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BusFreq_5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BusFreq_5</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>70</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BusFreq_6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BusFreq_6</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>71</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BusFreq_7</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BusFreq_7</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>72</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BusFreq_8</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BusFreq_8</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>73</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BusFreq_9</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>BusFreq_9</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>104</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BusFreq_10</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>BusFreq_10</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>105</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BusFreq_11</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>BusFreq_11</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>114</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BusFreq_12</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>BusFreq_12</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>115</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BusFreq_13</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>BusFreq_13</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>147</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BusFreq_14</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>BusFreq_14</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>125</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BusFreq_15</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>BusFreq_15</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>126</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BusFreq_16</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>BusFreq_16</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>127</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BusFreq_17</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>BusFreq_17</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>135</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BusFreq_18</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>BusFreq_18</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>136</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BusFreq_19</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>BusFreq_19</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>151</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>BusFreq_20</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>BusFreq_20</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>152</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BusFreq_21</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>BusFreq_21</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>153</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BusFreq_22</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>BusFreq_22</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>154</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BusFreq_23</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>BusFreq_23</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>155</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BusFreq_24</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>BusFreq_24</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>76</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BusFreq_25</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>BusFreq_25</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>183</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H26" t="n">
         <v>60</v>
       </c>
     </row>
@@ -12426,7 +13146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12463,17 +13183,157 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>gen</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Sn</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>fn</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Kp</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Ki</t>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>busf</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>xc</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>pqflag</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>igreg</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>qmx</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>qmn</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>pmx</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>v0</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>v1</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>dqdv</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>fdbd</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>ddn</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>ialim</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>vt0</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>vt1</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>vt2</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>vt3</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>vrflag</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>ft0</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>ft1</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>ft2</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>ft3</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>frflag</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>tip</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>tiq</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>gammap</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>gammaq</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>recflag</t>
         </is>
       </c>
     </row>
@@ -12483,7 +13343,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PLL2_1</t>
+          <t>WT_1</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -12491,20 +13351,100 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PLL2_1</t>
+          <t>WT_1</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>65</v>
       </c>
       <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>180.48</v>
+      </c>
+      <c r="H2" t="n">
         <v>60</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1</v>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>999</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O2" t="n">
+        <v>999</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>999</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -12513,7 +13453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLL2_2</t>
+          <t>WT_2</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -12521,20 +13461,100 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PLL2_2</t>
+          <t>WT_2</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>68</v>
       </c>
       <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="H3" t="n">
         <v>60</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.1</v>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>999</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O3" t="n">
+        <v>999</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>999</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -12543,7 +13563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLL2_3</t>
+          <t>WT_3</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -12551,20 +13571,100 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PLL2_3</t>
+          <t>WT_3</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>69</v>
       </c>
       <c r="F4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="H4" t="n">
         <v>60</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.1</v>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>999</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O4" t="n">
+        <v>999</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>999</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -12573,7 +13673,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PLL2_4</t>
+          <t>WT_4</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -12581,20 +13681,100 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PLL2_4</t>
+          <t>WT_4</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>70</v>
       </c>
       <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="H5" t="n">
         <v>60</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.1</v>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>999</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O5" t="n">
+        <v>999</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>999</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -12603,7 +13783,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLL2_5</t>
+          <t>WT_5</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -12611,20 +13791,100 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PLL2_5</t>
+          <t>WT_5</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>71</v>
       </c>
       <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="H6" t="n">
         <v>60</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.1</v>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>999</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O6" t="n">
+        <v>999</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>999</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -12633,7 +13893,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLL2_6</t>
+          <t>WT_6</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -12641,20 +13901,100 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PLL2_6</t>
+          <t>WT_6</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>72</v>
       </c>
       <c r="F7" t="n">
+        <v>12</v>
+      </c>
+      <c r="G7" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="H7" t="n">
         <v>60</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.1</v>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>999</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O7" t="n">
+        <v>999</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>999</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -12663,7 +14003,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PLL2_7</t>
+          <t>WT_7</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -12671,20 +14011,100 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PLL2_7</t>
+          <t>WT_7</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>73</v>
       </c>
       <c r="F8" t="n">
+        <v>13</v>
+      </c>
+      <c r="G8" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="H8" t="n">
         <v>60</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.1</v>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>999</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O8" t="n">
+        <v>999</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>999</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -12693,7 +14113,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PLL2_8</t>
+          <t>WT_8</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -12701,20 +14121,100 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PLL2_8</t>
+          <t>WT_8</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>104</v>
       </c>
       <c r="F9" t="n">
+        <v>22</v>
+      </c>
+      <c r="G9" t="n">
+        <v>118.8</v>
+      </c>
+      <c r="H9" t="n">
         <v>60</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.1</v>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>999</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O9" t="n">
+        <v>999</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>999</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -12723,7 +14223,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PLL2_9</t>
+          <t>WT_9</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -12731,20 +14231,100 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PLL2_9</t>
+          <t>WT_9</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>105</v>
       </c>
       <c r="F10" t="n">
+        <v>23</v>
+      </c>
+      <c r="G10" t="n">
+        <v>237.6</v>
+      </c>
+      <c r="H10" t="n">
         <v>60</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.1</v>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>999</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O10" t="n">
+        <v>999</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>999</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -12753,7 +14333,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PLL2_10</t>
+          <t>WT_10</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -12761,20 +14341,100 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PLL2_10</t>
+          <t>WT_10</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>114</v>
       </c>
       <c r="F11" t="n">
+        <v>24</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H11" t="n">
         <v>60</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.1</v>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>999</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O11" t="n">
+        <v>999</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>999</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -12783,7 +14443,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PLL2_11</t>
+          <t>WT_11</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -12791,20 +14451,100 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PLL2_11</t>
+          <t>WT_11</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>115</v>
       </c>
       <c r="F12" t="n">
+        <v>25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>180</v>
+      </c>
+      <c r="H12" t="n">
         <v>60</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.1</v>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>999</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O12" t="n">
+        <v>999</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>999</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -12813,7 +14553,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PLL2_12</t>
+          <t>WT_12</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -12821,20 +14561,100 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PLL2_12</t>
+          <t>WT_12</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>147</v>
       </c>
       <c r="F13" t="n">
+        <v>31</v>
+      </c>
+      <c r="G13" t="n">
+        <v>120.6</v>
+      </c>
+      <c r="H13" t="n">
         <v>60</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.1</v>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>999</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O13" t="n">
+        <v>999</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>999</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -12843,7 +14663,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PLL2_13</t>
+          <t>PV_1</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -12851,20 +14671,100 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PLL2_13</t>
+          <t>PV_1</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>125</v>
       </c>
       <c r="F14" t="n">
+        <v>26</v>
+      </c>
+      <c r="G14" t="n">
+        <v>156.06</v>
+      </c>
+      <c r="H14" t="n">
         <v>60</v>
       </c>
-      <c r="G14" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.1</v>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>999</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O14" t="n">
+        <v>999</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>999</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -12873,7 +14773,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PLL2_14</t>
+          <t>PV_2</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -12881,20 +14781,100 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PLL2_14</t>
+          <t>PV_2</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>126</v>
       </c>
       <c r="F15" t="n">
+        <v>27</v>
+      </c>
+      <c r="G15" t="n">
+        <v>156.06</v>
+      </c>
+      <c r="H15" t="n">
         <v>60</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.1</v>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>999</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O15" t="n">
+        <v>999</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>999</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -12903,7 +14883,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PLL2_15</t>
+          <t>PV_3</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -12911,20 +14891,100 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PLL2_15</t>
+          <t>PV_3</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>127</v>
       </c>
       <c r="F16" t="n">
+        <v>28</v>
+      </c>
+      <c r="G16" t="n">
+        <v>156.06</v>
+      </c>
+      <c r="H16" t="n">
         <v>60</v>
       </c>
-      <c r="G16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.1</v>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>999</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O16" t="n">
+        <v>999</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>999</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -12933,7 +14993,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PLL2_16</t>
+          <t>PV_4</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -12941,20 +15001,100 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PLL2_16</t>
+          <t>PV_4</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>135</v>
       </c>
       <c r="F17" t="n">
+        <v>29</v>
+      </c>
+      <c r="G17" t="n">
+        <v>535.6799999999999</v>
+      </c>
+      <c r="H17" t="n">
         <v>60</v>
       </c>
-      <c r="G17" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.1</v>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>999</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O17" t="n">
+        <v>999</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>999</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -12963,7 +15103,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PLL2_17</t>
+          <t>PV_5</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -12971,20 +15111,100 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PLL2_17</t>
+          <t>PV_5</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>136</v>
       </c>
       <c r="F18" t="n">
+        <v>30</v>
+      </c>
+      <c r="G18" t="n">
+        <v>535.6799999999999</v>
+      </c>
+      <c r="H18" t="n">
         <v>60</v>
       </c>
-      <c r="G18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.1</v>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>999</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O18" t="n">
+        <v>999</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>999</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -12993,7 +15213,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PLL2_18</t>
+          <t>PV_6</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -13001,20 +15221,100 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PLL2_18</t>
+          <t>PV_6</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>151</v>
       </c>
       <c r="F19" t="n">
+        <v>32</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="H19" t="n">
         <v>60</v>
       </c>
-      <c r="G19" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.1</v>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>999</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O19" t="n">
+        <v>999</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>999</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -13023,7 +15323,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PLL2_19</t>
+          <t>PV_7</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -13031,20 +15331,100 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PLL2_19</t>
+          <t>PV_7</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>152</v>
       </c>
       <c r="F20" t="n">
+        <v>33</v>
+      </c>
+      <c r="G20" t="n">
+        <v>92.67</v>
+      </c>
+      <c r="H20" t="n">
         <v>60</v>
       </c>
-      <c r="G20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.1</v>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>999</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O20" t="n">
+        <v>999</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>999</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -13053,7 +15433,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PLL2_20</t>
+          <t>PV_8</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -13061,20 +15441,100 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PLL2_20</t>
+          <t>PV_8</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>153</v>
       </c>
       <c r="F21" t="n">
+        <v>34</v>
+      </c>
+      <c r="G21" t="n">
+        <v>92.67</v>
+      </c>
+      <c r="H21" t="n">
         <v>60</v>
       </c>
-      <c r="G21" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.1</v>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>999</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O21" t="n">
+        <v>999</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>999</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -13083,7 +15543,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PLL2_21</t>
+          <t>PV_9</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -13091,20 +15551,100 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PLL2_21</t>
+          <t>PV_9</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>154</v>
       </c>
       <c r="F22" t="n">
+        <v>35</v>
+      </c>
+      <c r="G22" t="n">
+        <v>92.67</v>
+      </c>
+      <c r="H22" t="n">
         <v>60</v>
       </c>
-      <c r="G22" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.1</v>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>999</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O22" t="n">
+        <v>999</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>999</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -13113,7 +15653,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PLL2_22</t>
+          <t>PV_10</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -13121,80 +15661,100 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PLL2_22</t>
+          <t>PV_10</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>155</v>
       </c>
       <c r="F23" t="n">
+        <v>36</v>
+      </c>
+      <c r="G23" t="n">
+        <v>92.67</v>
+      </c>
+      <c r="H23" t="n">
         <v>60</v>
       </c>
-      <c r="G23" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PLL2_23</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>PLL2_23</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>76</v>
-      </c>
-      <c r="F24" t="n">
-        <v>60</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>PLL2_24</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>PLL2_24</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>183</v>
-      </c>
-      <c r="F25" t="n">
-        <v>60</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.1</v>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>999</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O23" t="n">
+        <v>999</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>999</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -13208,7 +15768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK25"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13255,152 +15815,182 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>rf</t>
+          <t>fn</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>xf</t>
+          <t>busf</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Vdip</t>
+          <t>xc</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Tfrz</t>
+          <t>pqflag</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>PQFLAG</t>
+          <t>igreg</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>fn</t>
+          <t>qmx</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>dwmax</t>
+          <t>qmn</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>dwmin</t>
+          <t>pmx</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>wdrp</t>
+          <t>v0</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Qdrp</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Tr</t>
+          <t>dqdv</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Te</t>
+          <t>fdbd</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>KPi</t>
+          <t>ddn</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>KIi</t>
+          <t>ialim</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>KPv</t>
+          <t>vt0</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>KIv</t>
+          <t>vt1</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Pmax</t>
+          <t>vt2</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Pmin</t>
+          <t>vt3</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>KPplim</t>
+          <t>vrflag</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>KIplim</t>
+          <t>ft0</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Qmax</t>
+          <t>ft1</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Qmin</t>
+          <t>ft2</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>KPqlim</t>
+          <t>ft3</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>KIqlim</t>
+          <t>frflag</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Tpm</t>
+          <t>tip</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>tiq</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>gammap</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>gammaq</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>mf</t>
-        </is>
-      </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>dd</t>
+          <t>recflag</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>pll</t>
+          <t>Tf</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>SOCmin</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>SOCmax</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>SOCinit</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>En</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>EtaC</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>EtaD</t>
         </is>
       </c>
     </row>
@@ -13410,7 +16000,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WT_1</t>
+          <t>ESS_1</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -13418,106 +16008,122 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>WT_1</t>
+          <t>ESS_1</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>180.48</v>
+        <v>4.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>999</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O2" t="n">
+        <v>999</v>
+      </c>
+      <c r="P2" t="n">
         <v>0.8</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>60</v>
-      </c>
-      <c r="N2" t="n">
-        <v>75</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.033</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0.045</v>
+        <v>1.1</v>
       </c>
       <c r="R2" t="n">
-        <v>0.005</v>
+        <v>-1</v>
       </c>
       <c r="S2" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>0.88</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>0.9</v>
       </c>
       <c r="X2" t="n">
-        <v>999</v>
+        <v>1.1</v>
       </c>
       <c r="Y2" t="n">
-        <v>-999</v>
+        <v>1.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>30</v>
+        <v>59.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>999</v>
+        <v>59.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>-999</v>
+        <v>60.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.1</v>
+        <v>60.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.025</v>
+        <v>0.02</v>
       </c>
       <c r="AG2" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -13525,7 +16131,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WT_2</t>
+          <t>ESS_2</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -13533,2636 +16139,122 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>WT_2</t>
+          <t>ESS_2</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="G3" t="n">
-        <v>33.5</v>
+        <v>31.92</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>999</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-999</v>
+      </c>
+      <c r="O3" t="n">
+        <v>999</v>
+      </c>
+      <c r="P3" t="n">
         <v>0.8</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>60</v>
-      </c>
-      <c r="N3" t="n">
-        <v>75</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.033</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0.045</v>
+        <v>1.1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.005</v>
+        <v>-1</v>
       </c>
       <c r="S3" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="V3" t="n">
-        <v>3</v>
+        <v>0.88</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>0.9</v>
       </c>
       <c r="X3" t="n">
-        <v>999</v>
+        <v>1.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>-999</v>
+        <v>1.2</v>
       </c>
       <c r="Z3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>30</v>
+        <v>59.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>999</v>
+        <v>59.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>-999</v>
+        <v>60.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.1</v>
+        <v>60.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.025</v>
+        <v>0.02</v>
       </c>
       <c r="AG3" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>WT_3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>WT_3</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>69</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-      <c r="G4" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>60</v>
-      </c>
-      <c r="N4" t="n">
-        <v>75</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T4" t="n">
-        <v>500</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3</v>
-      </c>
-      <c r="W4" t="n">
-        <v>10</v>
-      </c>
-      <c r="X4" t="n">
-        <v>999</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>999</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>WT_4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>WT_4</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>70</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>60</v>
-      </c>
-      <c r="N5" t="n">
-        <v>75</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T5" t="n">
-        <v>500</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3</v>
-      </c>
-      <c r="W5" t="n">
-        <v>10</v>
-      </c>
-      <c r="X5" t="n">
-        <v>999</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>999</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>WT_5</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>WT_5</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>71</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>60</v>
-      </c>
-      <c r="N6" t="n">
-        <v>75</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T6" t="n">
-        <v>500</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>3</v>
-      </c>
-      <c r="W6" t="n">
-        <v>10</v>
-      </c>
-      <c r="X6" t="n">
-        <v>999</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>999</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>WT_6</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>WT_6</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>72</v>
-      </c>
-      <c r="F7" t="n">
-        <v>12</v>
-      </c>
-      <c r="G7" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>60</v>
-      </c>
-      <c r="N7" t="n">
-        <v>75</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T7" t="n">
-        <v>500</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>3</v>
-      </c>
-      <c r="W7" t="n">
-        <v>10</v>
-      </c>
-      <c r="X7" t="n">
-        <v>999</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>999</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>WT_7</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>WT_7</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>73</v>
-      </c>
-      <c r="F8" t="n">
-        <v>13</v>
-      </c>
-      <c r="G8" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>60</v>
-      </c>
-      <c r="N8" t="n">
-        <v>75</v>
-      </c>
-      <c r="O8" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T8" t="n">
-        <v>500</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>3</v>
-      </c>
-      <c r="W8" t="n">
-        <v>10</v>
-      </c>
-      <c r="X8" t="n">
-        <v>999</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>999</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>WT_8</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>WT_8</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>104</v>
-      </c>
-      <c r="F9" t="n">
-        <v>22</v>
-      </c>
-      <c r="G9" t="n">
-        <v>118.8</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>60</v>
-      </c>
-      <c r="N9" t="n">
-        <v>75</v>
-      </c>
-      <c r="O9" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T9" t="n">
-        <v>500</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>3</v>
-      </c>
-      <c r="W9" t="n">
-        <v>10</v>
-      </c>
-      <c r="X9" t="n">
-        <v>999</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>999</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>WT_9</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>WT_9</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>105</v>
-      </c>
-      <c r="F10" t="n">
-        <v>23</v>
-      </c>
-      <c r="G10" t="n">
-        <v>237.6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>60</v>
-      </c>
-      <c r="N10" t="n">
-        <v>75</v>
-      </c>
-      <c r="O10" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T10" t="n">
-        <v>500</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>3</v>
-      </c>
-      <c r="W10" t="n">
-        <v>10</v>
-      </c>
-      <c r="X10" t="n">
-        <v>999</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>999</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>WT_10</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>WT_10</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>114</v>
-      </c>
-      <c r="F11" t="n">
-        <v>24</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>60</v>
-      </c>
-      <c r="N11" t="n">
-        <v>75</v>
-      </c>
-      <c r="O11" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T11" t="n">
-        <v>500</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>3</v>
-      </c>
-      <c r="W11" t="n">
-        <v>10</v>
-      </c>
-      <c r="X11" t="n">
-        <v>999</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>999</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>WT_11</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>WT_11</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>115</v>
-      </c>
-      <c r="F12" t="n">
-        <v>25</v>
-      </c>
-      <c r="G12" t="n">
-        <v>180</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>60</v>
-      </c>
-      <c r="N12" t="n">
-        <v>75</v>
-      </c>
-      <c r="O12" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T12" t="n">
-        <v>500</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>3</v>
-      </c>
-      <c r="W12" t="n">
-        <v>10</v>
-      </c>
-      <c r="X12" t="n">
-        <v>999</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>999</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>WT_12</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>WT_12</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>147</v>
-      </c>
-      <c r="F13" t="n">
-        <v>31</v>
-      </c>
-      <c r="G13" t="n">
-        <v>120.6</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>60</v>
-      </c>
-      <c r="N13" t="n">
-        <v>75</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T13" t="n">
-        <v>500</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>3</v>
-      </c>
-      <c r="W13" t="n">
-        <v>10</v>
-      </c>
-      <c r="X13" t="n">
-        <v>999</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>999</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>PV_1</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>PV_1</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>125</v>
-      </c>
-      <c r="F14" t="n">
-        <v>26</v>
-      </c>
-      <c r="G14" t="n">
-        <v>156.06</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>60</v>
-      </c>
-      <c r="N14" t="n">
-        <v>75</v>
-      </c>
-      <c r="O14" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T14" t="n">
-        <v>500</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>3</v>
-      </c>
-      <c r="W14" t="n">
-        <v>10</v>
-      </c>
-      <c r="X14" t="n">
-        <v>999</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>999</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>PV_2</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>PV_2</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>126</v>
-      </c>
-      <c r="F15" t="n">
-        <v>27</v>
-      </c>
-      <c r="G15" t="n">
-        <v>156.06</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>60</v>
-      </c>
-      <c r="N15" t="n">
-        <v>75</v>
-      </c>
-      <c r="O15" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T15" t="n">
-        <v>500</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>3</v>
-      </c>
-      <c r="W15" t="n">
-        <v>10</v>
-      </c>
-      <c r="X15" t="n">
-        <v>999</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>999</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>PV_3</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>PV_3</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>127</v>
-      </c>
-      <c r="F16" t="n">
-        <v>28</v>
-      </c>
-      <c r="G16" t="n">
-        <v>156.06</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>60</v>
-      </c>
-      <c r="N16" t="n">
-        <v>75</v>
-      </c>
-      <c r="O16" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T16" t="n">
-        <v>500</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>3</v>
-      </c>
-      <c r="W16" t="n">
-        <v>10</v>
-      </c>
-      <c r="X16" t="n">
-        <v>999</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>999</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>PV_4</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>PV_4</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>135</v>
-      </c>
-      <c r="F17" t="n">
-        <v>29</v>
-      </c>
-      <c r="G17" t="n">
-        <v>535.6799999999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>60</v>
-      </c>
-      <c r="N17" t="n">
-        <v>75</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T17" t="n">
-        <v>500</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>3</v>
-      </c>
-      <c r="W17" t="n">
-        <v>10</v>
-      </c>
-      <c r="X17" t="n">
-        <v>999</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>999</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>PV_5</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>PV_5</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>136</v>
-      </c>
-      <c r="F18" t="n">
-        <v>30</v>
-      </c>
-      <c r="G18" t="n">
-        <v>535.6799999999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>60</v>
-      </c>
-      <c r="N18" t="n">
-        <v>75</v>
-      </c>
-      <c r="O18" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T18" t="n">
-        <v>500</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>3</v>
-      </c>
-      <c r="W18" t="n">
-        <v>10</v>
-      </c>
-      <c r="X18" t="n">
-        <v>999</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>999</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PV_6</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>PV_6</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>151</v>
-      </c>
-      <c r="F19" t="n">
-        <v>32</v>
-      </c>
-      <c r="G19" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>60</v>
-      </c>
-      <c r="N19" t="n">
-        <v>75</v>
-      </c>
-      <c r="O19" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T19" t="n">
-        <v>500</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>3</v>
-      </c>
-      <c r="W19" t="n">
-        <v>10</v>
-      </c>
-      <c r="X19" t="n">
-        <v>999</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>999</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>PV_7</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>PV_7</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>152</v>
-      </c>
-      <c r="F20" t="n">
-        <v>33</v>
-      </c>
-      <c r="G20" t="n">
-        <v>92.67</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>60</v>
-      </c>
-      <c r="N20" t="n">
-        <v>75</v>
-      </c>
-      <c r="O20" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T20" t="n">
-        <v>500</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>3</v>
-      </c>
-      <c r="W20" t="n">
-        <v>10</v>
-      </c>
-      <c r="X20" t="n">
-        <v>999</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>999</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>PV_8</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>PV_8</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>153</v>
-      </c>
-      <c r="F21" t="n">
-        <v>34</v>
-      </c>
-      <c r="G21" t="n">
-        <v>92.67</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>60</v>
-      </c>
-      <c r="N21" t="n">
-        <v>75</v>
-      </c>
-      <c r="O21" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T21" t="n">
-        <v>500</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>3</v>
-      </c>
-      <c r="W21" t="n">
-        <v>10</v>
-      </c>
-      <c r="X21" t="n">
-        <v>999</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>999</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PV_9</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>PV_9</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>154</v>
-      </c>
-      <c r="F22" t="n">
-        <v>35</v>
-      </c>
-      <c r="G22" t="n">
-        <v>92.67</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>60</v>
-      </c>
-      <c r="N22" t="n">
-        <v>75</v>
-      </c>
-      <c r="O22" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T22" t="n">
-        <v>500</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>3</v>
-      </c>
-      <c r="W22" t="n">
-        <v>10</v>
-      </c>
-      <c r="X22" t="n">
-        <v>999</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>999</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PV_10</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>PV_10</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>155</v>
-      </c>
-      <c r="F23" t="n">
-        <v>36</v>
-      </c>
-      <c r="G23" t="n">
-        <v>92.67</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="n">
-        <v>60</v>
-      </c>
-      <c r="N23" t="n">
-        <v>75</v>
-      </c>
-      <c r="O23" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T23" t="n">
-        <v>500</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>3</v>
-      </c>
-      <c r="W23" t="n">
-        <v>10</v>
-      </c>
-      <c r="X23" t="n">
-        <v>999</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>999</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>ESS_1</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>ESS_1</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>76</v>
-      </c>
-      <c r="F24" t="n">
-        <v>14</v>
-      </c>
-      <c r="G24" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="n">
-        <v>60</v>
-      </c>
-      <c r="N24" t="n">
-        <v>75</v>
-      </c>
-      <c r="O24" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T24" t="n">
-        <v>500</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>3</v>
-      </c>
-      <c r="W24" t="n">
-        <v>10</v>
-      </c>
-      <c r="X24" t="n">
-        <v>999</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>999</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ESS_2</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>ESS_2</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>183</v>
-      </c>
-      <c r="F25" t="n">
-        <v>46</v>
-      </c>
-      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO3" t="n">
         <v>31.92</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="n">
-        <v>60</v>
-      </c>
-      <c r="N25" t="n">
-        <v>75</v>
-      </c>
-      <c r="O25" t="n">
-        <v>-75</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T25" t="n">
-        <v>500</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>3</v>
-      </c>
-      <c r="W25" t="n">
-        <v>10</v>
-      </c>
-      <c r="X25" t="n">
-        <v>999</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>999</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
